--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -1273,42 +1273,42 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>activityDTOModelMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
     <t>operationHttpStatusMapper</t>
   </si>
   <si>
     <t>org.andante.mappers.OperationHttpStatusMapper</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
   </si>
   <si>
     <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
+    <t>NULL_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_MESSAGE</t>
   </si>
   <si>
     <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityDTOModelMapper</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>activityService</t>
   </si>
   <si>
@@ -1321,112 +1321,115 @@
     <t>description</t>
   </si>
   <si>
+    <t>eventTimestamp</t>
+  </si>
+  <si>
     <t>affectsAll</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>acknowledgedUsers</t>
+  </si>
+  <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>relatedId</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>affectedUsers</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
-    <t>acknowledgedUsers</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>relatedId</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>observingUsers</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>communityImageUrl</t>
+  </si>
+  <si>
+    <t>observedUsers</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>communityImageUrl</t>
-  </si>
-  <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
-    <t>observingUsers</t>
-  </si>
-  <si>
-    <t>observedUsers</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>recommendationService</t>
   </si>
   <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>smtpAuth</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
     <t>java.lang.Integer</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>smtpAuth</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>enableStartTLS</t>
+    <t>jwtTokenDecoder</t>
+  </si>
+  <si>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>userProfileService</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>profileService</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>profileService</t>
-  </si>
-  <si>
-    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
-    <t>userProfileService</t>
-  </si>
-  <si>
     <t>userProfileMapper</t>
   </si>
   <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>affectsAll$value</t>
   </si>
   <si>
     <t>affectsAll$set</t>
   </si>
   <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
     <t>subscriptionDate</t>
   </si>
   <si>
     <t>isConfirmed</t>
   </si>
   <si>
-    <t>emailAddress</t>
+    <t>adminUsername</t>
   </si>
   <si>
     <t>keycloakUrl</t>
@@ -1435,63 +1438,63 @@
     <t>keycloakUpdateUserPath</t>
   </si>
   <si>
-    <t>adminUsername</t>
-  </si>
-  <si>
     <t>adminPassword</t>
   </si>
   <si>
+    <t>keycloakAdminTokenPath</t>
+  </si>
+  <si>
     <t>keycloakGetUserPath</t>
   </si>
   <si>
-    <t>keycloakAdminTokenPath</t>
-  </si>
-  <si>
     <t>observed</t>
   </si>
   <si>
     <t>observers</t>
   </si>
   <si>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TITLE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
     <t>sender</t>
   </si>
   <si>
     <t>mailSender</t>
   </si>
   <si>
-    <t>NEWSLETTER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_TITLE</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
+    <t>userProfileRepository</t>
   </si>
   <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>userProfileModelEntityMapper</t>
   </si>
   <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>issuerUri</t>
   </si>
   <si>
+    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
@@ -1501,25 +1504,31 @@
     <t>newsletterRepository</t>
   </si>
   <si>
-    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+    <t>privateToken</t>
   </si>
   <si>
     <t>databaseId</t>
   </si>
   <si>
-    <t>privateToken</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>activityModelEntityMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>rsqlParser</t>
   </si>
   <si>
     <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
-    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>activityRepository</t>
@@ -1531,79 +1540,70 @@
     <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
-    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityModelEntityMapper</t>
-  </si>
-  <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>emailSender</t>
+  </si>
+  <si>
     <t>EMAIL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>newsletterService</t>
   </si>
   <si>
-    <t>emailSender</t>
-  </si>
-  <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>val$productOutputDTO</t>
+  </si>
+  <si>
+    <t>org.andante.product.dto.ProductOutputDTO</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>entrySet</t>
   </si>
   <si>
-    <t>val$productOutputDTO</t>
-  </si>
-  <si>
-    <t>org.andante.product.dto.ProductOutputDTO</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>values</t>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
   </si>
   <si>
     <t>table</t>
   </si>
   <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
+    <t>MIN_TREEIFY_CAPACITY</t>
   </si>
   <si>
     <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
-  </si>
-  <si>
-    <t>keySet</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -17966,7 +17966,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>418</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -17974,7 +17974,7 @@
         <v>406</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>46</v>
@@ -17988,13 +17988,13 @@
         <v>406</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -18078,7 +18078,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -18204,7 +18204,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -18218,7 +18218,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -18232,7 +18232,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -18246,7 +18246,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -18274,7 +18274,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -18288,7 +18288,7 @@
         <v>46</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -18386,7 +18386,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -18414,7 +18414,7 @@
         <v>46</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -18540,7 +18540,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -18548,7 +18548,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>46</v>
@@ -18562,7 +18562,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>46</v>
@@ -18576,7 +18576,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>46</v>
@@ -18590,7 +18590,7 @@
         <v>130</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>46</v>
@@ -18604,13 +18604,13 @@
         <v>130</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>14</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49">
@@ -18624,7 +18624,7 @@
         <v>46</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -18652,7 +18652,7 @@
         <v>46</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -18694,7 +18694,7 @@
         <v>46</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -18708,7 +18708,7 @@
         <v>46</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -18722,7 +18722,7 @@
         <v>46</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -18736,7 +18736,7 @@
         <v>46</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
@@ -18758,7 +18758,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>46</v>
@@ -18772,7 +18772,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>46</v>
@@ -18786,7 +18786,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>46</v>
@@ -18800,13 +18800,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -18814,13 +18814,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -18856,13 +18856,13 @@
         <v>162</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -18870,13 +18870,13 @@
         <v>162</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -18884,13 +18884,13 @@
         <v>162</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -18898,13 +18898,13 @@
         <v>162</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70">
@@ -18912,13 +18912,13 @@
         <v>162</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -18926,13 +18926,13 @@
         <v>162</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -18940,13 +18940,13 @@
         <v>162</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
@@ -18954,13 +18954,13 @@
         <v>162</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -18968,7 +18968,7 @@
         <v>162</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>46</v>
@@ -18982,13 +18982,13 @@
         <v>162</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -19002,7 +19002,7 @@
         <v>46</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -19016,7 +19016,7 @@
         <v>46</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
@@ -19030,7 +19030,7 @@
         <v>46</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -19066,13 +19066,13 @@
         <v>183</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -19080,7 +19080,7 @@
         <v>183</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>46</v>
@@ -19094,7 +19094,7 @@
         <v>183</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>46</v>
@@ -19108,7 +19108,7 @@
         <v>183</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>46</v>
@@ -19122,7 +19122,7 @@
         <v>183</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>46</v>
@@ -19136,13 +19136,13 @@
         <v>183</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -19170,7 +19170,7 @@
         <v>46</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -19184,7 +19184,7 @@
         <v>46</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
@@ -19198,7 +19198,7 @@
         <v>46</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
@@ -19212,7 +19212,7 @@
         <v>46</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -19220,13 +19220,13 @@
         <v>177</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
@@ -19234,7 +19234,7 @@
         <v>177</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>46</v>
@@ -19262,7 +19262,7 @@
         <v>206</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>46</v>
@@ -19276,13 +19276,13 @@
         <v>206</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -19290,13 +19290,13 @@
         <v>206</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -19304,13 +19304,13 @@
         <v>206</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -19318,13 +19318,13 @@
         <v>206</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -19332,7 +19332,7 @@
         <v>206</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>46</v>
@@ -19394,7 +19394,7 @@
         <v>46</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -19408,7 +19408,7 @@
         <v>46</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>14</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106">
@@ -19416,13 +19416,13 @@
         <v>219</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107">
@@ -19430,7 +19430,7 @@
         <v>219</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>46</v>
@@ -19444,13 +19444,13 @@
         <v>219</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>484</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
@@ -19478,7 +19478,7 @@
         <v>46</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
@@ -19492,7 +19492,7 @@
         <v>46</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -19506,7 +19506,7 @@
         <v>46</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -19520,7 +19520,7 @@
         <v>46</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114">
@@ -19562,7 +19562,7 @@
         <v>46</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>153</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -19576,7 +19576,7 @@
         <v>46</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>83</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
@@ -19590,7 +19590,7 @@
         <v>46</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119">
@@ -19598,7 +19598,7 @@
         <v>207</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>46</v>
@@ -19612,13 +19612,13 @@
         <v>207</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -19626,13 +19626,13 @@
         <v>207</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -19640,13 +19640,13 @@
         <v>207</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -19654,7 +19654,7 @@
         <v>207</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>46</v>
@@ -19668,13 +19668,13 @@
         <v>207</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -19710,7 +19710,7 @@
         <v>245</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>46</v>
@@ -19786,7 +19786,7 @@
         <v>46</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>498</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
@@ -19794,7 +19794,7 @@
         <v>286</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>46</v>
@@ -19808,13 +19808,13 @@
         <v>286</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>311</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -19822,13 +19822,13 @@
         <v>286</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136">
@@ -19836,7 +19836,7 @@
         <v>286</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>46</v>
@@ -19850,13 +19850,13 @@
         <v>286</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>14</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138">
@@ -19864,13 +19864,13 @@
         <v>286</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>51</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139">
@@ -19898,7 +19898,7 @@
         <v>46</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -19906,13 +19906,13 @@
         <v>69</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -19920,13 +19920,13 @@
         <v>69</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143">
@@ -19934,7 +19934,7 @@
         <v>69</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>46</v>
@@ -19948,13 +19948,13 @@
         <v>69</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145">
@@ -19962,13 +19962,13 @@
         <v>69</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -19976,13 +19976,13 @@
         <v>69</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147">
@@ -19990,13 +19990,13 @@
         <v>69</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148">
@@ -20004,13 +20004,13 @@
         <v>69</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -20046,13 +20046,13 @@
         <v>413</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152">
@@ -20060,13 +20060,13 @@
         <v>413</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153">
@@ -20074,13 +20074,13 @@
         <v>413</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -20094,7 +20094,7 @@
         <v>46</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155">
@@ -20144,7 +20144,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>46</v>
@@ -20158,7 +20158,7 @@
         <v>155</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>46</v>
@@ -20172,7 +20172,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>46</v>
@@ -20228,13 +20228,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -20242,13 +20242,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166">
@@ -20256,13 +20256,13 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167">
@@ -20270,13 +20270,13 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -20284,13 +20284,13 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -20298,13 +20298,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170">
@@ -20312,13 +20312,13 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171">
@@ -20326,13 +20326,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -20340,13 +20340,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -20360,7 +20360,7 @@
         <v>332</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
@@ -20374,7 +20374,7 @@
         <v>332</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>513</v>
+        <v>380</v>
       </c>
     </row>
     <row r="175">
@@ -20382,13 +20382,13 @@
         <v>330</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>325</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
@@ -20396,13 +20396,13 @@
         <v>330</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>23</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177">
@@ -20416,7 +20416,7 @@
         <v>332</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>23</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178">
@@ -20430,7 +20430,7 @@
         <v>332</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="179">
@@ -20444,7 +20444,7 @@
         <v>332</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>393</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
@@ -20472,7 +20472,7 @@
         <v>332</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -20500,7 +20500,7 @@
         <v>332</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -20542,7 +20542,7 @@
         <v>332</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>23</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187">
@@ -20570,7 +20570,7 @@
         <v>332</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9290" uniqueCount="585">
   <si>
     <t>Class Name</t>
   </si>
@@ -1273,111 +1275,111 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityService</t>
+  </si>
+  <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>activityDTOModelMapper</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
-  </si>
-  <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
-  </si>
-  <si>
-    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityService</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
     <t>int[]</t>
   </si>
   <si>
+    <t>acknowledgedUsers</t>
+  </si>
+  <si>
+    <t>affectsAll</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>relatedId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
     <t>eventTimestamp</t>
   </si>
   <si>
-    <t>affectsAll</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>acknowledgedUsers</t>
-  </si>
-  <si>
-    <t>affectedUsers</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>relatedId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>observedUsers</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>imageUrl</t>
   </si>
   <si>
     <t>observingUsers</t>
   </si>
   <si>
-    <t>key</t>
+    <t>username</t>
   </si>
   <si>
     <t>communityImageUrl</t>
   </si>
   <si>
-    <t>observedUsers</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>recommendationService</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>enableStartTLS</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>smtpAuth</t>
   </si>
   <si>
@@ -1387,39 +1389,39 @@
     <t>java.lang.Integer</t>
   </si>
   <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>userProfileService</t>
+  </si>
+  <si>
+    <t>profileService</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>jwtTokenDecoder</t>
   </si>
   <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileService</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>profileService</t>
-  </si>
-  <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>userProfileMapper</t>
   </si>
   <si>
+    <t>affectsAll$set</t>
+  </si>
+  <si>
     <t>affectsAll$value</t>
   </si>
   <si>
-    <t>affectsAll$set</t>
-  </si>
-  <si>
     <t>emailAddress</t>
   </si>
   <si>
@@ -1429,97 +1431,103 @@
     <t>isConfirmed</t>
   </si>
   <si>
+    <t>keycloakUrl</t>
+  </si>
+  <si>
+    <t>keycloakAdminTokenPath</t>
+  </si>
+  <si>
+    <t>keycloakGetUserPath</t>
+  </si>
+  <si>
     <t>adminUsername</t>
   </si>
   <si>
-    <t>keycloakUrl</t>
+    <t>adminPassword</t>
   </si>
   <si>
     <t>keycloakUpdateUserPath</t>
   </si>
   <si>
-    <t>adminPassword</t>
-  </si>
-  <si>
-    <t>keycloakAdminTokenPath</t>
-  </si>
-  <si>
-    <t>keycloakGetUserPath</t>
+    <t>observers</t>
   </si>
   <si>
     <t>observed</t>
   </si>
   <si>
-    <t>observers</t>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TITLE</t>
   </si>
   <si>
     <t>NEWSLETTER_TEMPLATE</t>
   </si>
   <si>
-    <t>NEWSLETTER_TITLE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
     <t>mailSender</t>
   </si>
   <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>userProfileRepository</t>
   </si>
   <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>userProfileModelEntityMapper</t>
   </si>
   <si>
     <t>issuerUri</t>
   </si>
   <si>
+    <t>newsletterMapper</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>newsletterMapper</t>
-  </si>
-  <si>
     <t>newsletterRepository</t>
   </si>
   <si>
+    <t>databaseId</t>
+  </si>
+  <si>
     <t>privateToken</t>
   </si>
   <si>
-    <t>databaseId</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
     <t>activityModelEntityMapper</t>
   </si>
   <si>
+    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityRepository</t>
   </si>
   <si>
     <t>rsqlParser</t>
@@ -1528,12 +1536,6 @@
     <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
-    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityRepository</t>
-  </si>
-  <si>
     <t>rsqlVisitor</t>
   </si>
   <si>
@@ -1543,69 +1545,69 @@
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>newsletterService</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>emailSender</t>
   </si>
   <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>newsletterService</t>
-  </si>
-  <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>val$productOutputDTO</t>
+  </si>
+  <si>
+    <t>org.andante.product.dto.ProductOutputDTO</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
+  </si>
+  <si>
     <t>TREEIFY_THRESHOLD</t>
   </si>
   <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
     <t>values</t>
   </si>
   <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>val$productOutputDTO</t>
-  </si>
-  <si>
-    <t>org.andante.product.dto.ProductOutputDTO</t>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
   </si>
   <si>
     <t>this$0</t>
   </si>
   <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
-  </si>
-  <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1667,6 +1669,114 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -17612,6 +17722,4463 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C349"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D22"/>
@@ -17966,7 +22533,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -17994,7 +22561,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>420</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -18002,7 +22569,7 @@
         <v>406</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>46</v>
@@ -18016,7 +22583,7 @@
         <v>406</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>46</v>
@@ -18030,13 +22597,13 @@
         <v>406</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8">
@@ -18044,13 +22611,13 @@
         <v>406</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9">
@@ -18120,7 +22687,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>324</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -18142,7 +22709,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>46</v>
@@ -18170,7 +22737,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>46</v>
@@ -18190,7 +22757,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -18204,7 +22771,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -18218,7 +22785,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -18246,7 +22813,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -18260,7 +22827,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -18274,7 +22841,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -18288,7 +22855,7 @@
         <v>46</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -18302,7 +22869,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -18310,7 +22877,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>46</v>
@@ -18372,7 +22939,7 @@
         <v>46</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -18386,7 +22953,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -18414,7 +22981,7 @@
         <v>46</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -18428,7 +22995,7 @@
         <v>46</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -18464,7 +23031,7 @@
         <v>110</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>46</v>
@@ -18478,7 +23045,7 @@
         <v>118</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>46</v>
@@ -18492,7 +23059,7 @@
         <v>122</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>46</v>
@@ -18520,7 +23087,7 @@
         <v>126</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>46</v>
@@ -18562,7 +23129,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>46</v>
@@ -18576,7 +23143,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>46</v>
@@ -18590,13 +23157,13 @@
         <v>130</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>14</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
@@ -18604,13 +23171,13 @@
         <v>130</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>454</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -18624,7 +23191,7 @@
         <v>46</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -18652,7 +23219,7 @@
         <v>46</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -18666,7 +23233,7 @@
         <v>46</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -18680,7 +23247,7 @@
         <v>46</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -18694,7 +23261,7 @@
         <v>46</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -18708,7 +23275,7 @@
         <v>46</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
@@ -18744,7 +23311,7 @@
         <v>135</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>46</v>
@@ -18758,7 +23325,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>46</v>
@@ -18772,7 +23339,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>46</v>
@@ -18786,7 +23353,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>46</v>
@@ -18806,7 +23373,7 @@
         <v>46</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -18814,7 +23381,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>46</v>
@@ -18828,13 +23395,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -18856,13 +23423,13 @@
         <v>162</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -18870,7 +23437,7 @@
         <v>162</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>46</v>
@@ -18884,13 +23451,13 @@
         <v>162</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -18912,13 +23479,13 @@
         <v>162</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -18926,13 +23493,13 @@
         <v>162</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -18940,13 +23507,13 @@
         <v>162</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -18954,13 +23521,13 @@
         <v>162</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
@@ -18974,7 +23541,7 @@
         <v>46</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -18982,13 +23549,13 @@
         <v>162</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
@@ -19052,7 +23619,7 @@
         <v>179</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>46</v>
@@ -19136,7 +23703,7 @@
         <v>183</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>46</v>
@@ -19164,13 +23731,13 @@
         <v>198</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
@@ -19192,13 +23759,13 @@
         <v>198</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -19206,13 +23773,13 @@
         <v>177</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
@@ -19220,13 +23787,13 @@
         <v>177</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -19248,7 +23815,7 @@
         <v>202</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>46</v>
@@ -19262,7 +23829,7 @@
         <v>206</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>46</v>
@@ -19276,13 +23843,13 @@
         <v>206</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -19290,7 +23857,7 @@
         <v>206</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>46</v>
@@ -19304,13 +23871,13 @@
         <v>206</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -19318,13 +23885,13 @@
         <v>206</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -19332,13 +23899,13 @@
         <v>206</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -19346,7 +23913,7 @@
         <v>211</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>46</v>
@@ -19360,7 +23927,7 @@
         <v>215</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>46</v>
@@ -19380,7 +23947,7 @@
         <v>46</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>14</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104">
@@ -19388,7 +23955,7 @@
         <v>219</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>46</v>
@@ -19402,13 +23969,13 @@
         <v>219</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106">
@@ -19416,13 +23983,13 @@
         <v>219</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>482</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -19458,7 +24025,7 @@
         <v>221</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>46</v>
@@ -19478,7 +24045,7 @@
         <v>46</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -19492,7 +24059,7 @@
         <v>46</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
@@ -19548,7 +24115,7 @@
         <v>46</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
@@ -19576,7 +24143,7 @@
         <v>46</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>153</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -19598,7 +24165,7 @@
         <v>207</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>46</v>
@@ -19612,7 +24179,7 @@
         <v>207</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>46</v>
@@ -19626,7 +24193,7 @@
         <v>207</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>46</v>
@@ -19640,7 +24207,7 @@
         <v>207</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>46</v>
@@ -19654,13 +24221,13 @@
         <v>207</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -19668,13 +24235,13 @@
         <v>207</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -19682,7 +24249,7 @@
         <v>237</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>46</v>
@@ -19710,7 +24277,7 @@
         <v>245</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>46</v>
@@ -19828,7 +24395,7 @@
         <v>46</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>501</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -19836,13 +24403,13 @@
         <v>286</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>14</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137">
@@ -19850,13 +24417,13 @@
         <v>286</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>311</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138">
@@ -19892,7 +24459,7 @@
         <v>69</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>46</v>
@@ -19906,13 +24473,13 @@
         <v>69</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142">
@@ -19920,13 +24487,13 @@
         <v>69</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -19934,13 +24501,13 @@
         <v>69</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144">
@@ -19948,13 +24515,13 @@
         <v>69</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145">
@@ -19962,7 +24529,7 @@
         <v>69</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>46</v>
@@ -19976,7 +24543,7 @@
         <v>69</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>46</v>
@@ -19990,13 +24557,13 @@
         <v>69</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -20004,7 +24571,7 @@
         <v>69</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>46</v>
@@ -20046,7 +24613,7 @@
         <v>413</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>46</v>
@@ -20066,7 +24633,7 @@
         <v>46</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153">
@@ -20094,7 +24661,7 @@
         <v>46</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155">
@@ -20158,13 +24725,13 @@
         <v>155</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160">
@@ -20172,13 +24739,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -20186,7 +24753,7 @@
         <v>320</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>46</v>
@@ -20228,13 +24795,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -20242,13 +24809,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -20256,13 +24823,13 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -20270,7 +24837,7 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>46</v>
@@ -20284,13 +24851,13 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169">
@@ -20298,13 +24865,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -20312,13 +24879,13 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171">
@@ -20326,13 +24893,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172">
@@ -20340,13 +24907,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173">
@@ -20360,7 +24927,7 @@
         <v>332</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>23</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174">
@@ -20374,7 +24941,7 @@
         <v>332</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
@@ -20388,7 +24955,7 @@
         <v>332</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -20416,7 +24983,7 @@
         <v>332</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>325</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -20430,7 +24997,7 @@
         <v>332</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>390</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
@@ -20458,7 +25025,7 @@
         <v>332</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>390</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -20472,7 +25039,7 @@
         <v>332</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
@@ -20486,7 +25053,7 @@
         <v>332</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>23</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
@@ -20500,7 +25067,7 @@
         <v>332</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>18</v>
+        <v>380</v>
       </c>
     </row>
     <row r="184">
@@ -20514,7 +25081,7 @@
         <v>332</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -20542,7 +25109,7 @@
         <v>332</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>393</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
@@ -20556,7 +25123,7 @@
         <v>332</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>23</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188">
@@ -20570,7 +25137,7 @@
         <v>332</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>23</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -1275,45 +1275,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>activityService</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityDTOModelMapper</t>
+  </si>
+  <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_MESSAGE</t>
+  </si>
+  <si>
     <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
   </si>
   <si>
-    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
+    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityService</t>
-  </si>
-  <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityDTOModelMapper</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
@@ -1326,36 +1326,36 @@
     <t>affectsAll</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>eventTimestamp</t>
+  </si>
+  <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
     <t>priority</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
     <t>relatedId</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>affectedUsers</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>observedUsers</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>imageUrl</t>
   </si>
   <si>
@@ -1371,81 +1371,81 @@
     <t>recommendationService</t>
   </si>
   <si>
+    <t>smtpAuth</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>smtpAuth</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
     <t>java.lang.Integer</t>
   </si>
   <si>
+    <t>userProfileService</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>userProfileMapper</t>
+  </si>
+  <si>
+    <t>profileService</t>
+  </si>
+  <si>
+    <t>jwtTokenDecoder</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileService</t>
-  </si>
-  <si>
-    <t>profileService</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
     <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>userProfileMapper</t>
+    <t>affectsAll$value</t>
   </si>
   <si>
     <t>affectsAll$set</t>
   </si>
   <si>
-    <t>affectsAll$value</t>
+    <t>subscriptionDate</t>
   </si>
   <si>
     <t>emailAddress</t>
   </si>
   <si>
-    <t>subscriptionDate</t>
-  </si>
-  <si>
     <t>isConfirmed</t>
   </si>
   <si>
+    <t>adminPassword</t>
+  </si>
+  <si>
+    <t>keycloakAdminTokenPath</t>
+  </si>
+  <si>
+    <t>keycloakGetUserPath</t>
+  </si>
+  <si>
+    <t>adminUsername</t>
+  </si>
+  <si>
     <t>keycloakUrl</t>
   </si>
   <si>
-    <t>keycloakAdminTokenPath</t>
-  </si>
-  <si>
-    <t>keycloakGetUserPath</t>
-  </si>
-  <si>
-    <t>adminUsername</t>
-  </si>
-  <si>
-    <t>adminPassword</t>
-  </si>
-  <si>
     <t>keycloakUpdateUserPath</t>
   </si>
   <si>
@@ -1461,81 +1461,81 @@
     <t>org.thymeleaf.TemplateEngine</t>
   </si>
   <si>
+    <t>NEWSLETTER_TITLE</t>
+  </si>
+  <si>
     <t>sender</t>
   </si>
   <si>
+    <t>mailSender</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
     <t>org.springframework.core.io.Resource</t>
   </si>
   <si>
-    <t>NEWSLETTER_TITLE</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>mailSender</t>
+    <t>userProfileModelEntityMapper</t>
+  </si>
+  <si>
+    <t>userProfileRepository</t>
   </si>
   <si>
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>userProfileModelEntityMapper</t>
-  </si>
-  <si>
     <t>issuerUri</t>
   </si>
   <si>
+    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>newsletterRepository</t>
+  </si>
+  <si>
     <t>newsletterMapper</t>
   </si>
   <si>
     <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>newsletterRepository</t>
+    <t>privateToken</t>
   </si>
   <si>
     <t>databaseId</t>
   </si>
   <si>
-    <t>privateToken</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityRepository</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
     <t>activityModelEntityMapper</t>
   </si>
   <si>
-    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>activityRepository</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
     <t>rsqlVisitor</t>
   </si>
   <si>
@@ -1545,67 +1545,67 @@
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>newsletterService</t>
   </si>
   <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>emailSender</t>
   </si>
   <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>values</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>val$productOutputDTO</t>
+  </si>
+  <si>
+    <t>org.andante.product.dto.ProductOutputDTO</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
     <t>threshold</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
-    <t>val$productOutputDTO</t>
-  </si>
-  <si>
-    <t>org.andante.product.dto.ProductOutputDTO</t>
-  </si>
-  <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>this$0</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -22533,7 +22533,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
@@ -22561,7 +22561,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -22575,7 +22575,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6">
@@ -22583,7 +22583,7 @@
         <v>406</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>46</v>
@@ -22597,13 +22597,13 @@
         <v>406</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>324</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -22611,13 +22611,13 @@
         <v>406</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>424</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -22687,7 +22687,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -22709,7 +22709,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>46</v>
@@ -22737,7 +22737,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>46</v>
@@ -22799,7 +22799,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -22813,7 +22813,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -22827,7 +22827,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -22841,7 +22841,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -22855,7 +22855,7 @@
         <v>46</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -22869,7 +22869,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -22877,7 +22877,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>46</v>
@@ -22939,7 +22939,7 @@
         <v>46</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -22953,7 +22953,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -23031,7 +23031,7 @@
         <v>110</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>46</v>
@@ -23045,7 +23045,7 @@
         <v>118</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>46</v>
@@ -23059,7 +23059,7 @@
         <v>122</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>46</v>
@@ -23087,7 +23087,7 @@
         <v>126</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>46</v>
@@ -23115,7 +23115,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>46</v>
@@ -23129,7 +23129,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>46</v>
@@ -23143,7 +23143,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>46</v>
@@ -23157,13 +23157,13 @@
         <v>130</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>454</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -23171,13 +23171,13 @@
         <v>130</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>14</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49">
@@ -23191,7 +23191,7 @@
         <v>46</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -23233,7 +23233,7 @@
         <v>46</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
@@ -23261,7 +23261,7 @@
         <v>46</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
@@ -23275,7 +23275,7 @@
         <v>46</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -23303,7 +23303,7 @@
         <v>46</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -23311,7 +23311,7 @@
         <v>135</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>46</v>
@@ -23325,7 +23325,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>46</v>
@@ -23339,7 +23339,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>46</v>
@@ -23353,7 +23353,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>46</v>
@@ -23367,7 +23367,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>46</v>
@@ -23381,7 +23381,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>46</v>
@@ -23395,7 +23395,7 @@
         <v>12</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>46</v>
@@ -23423,13 +23423,13 @@
         <v>162</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
@@ -23437,13 +23437,13 @@
         <v>162</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -23451,13 +23451,13 @@
         <v>162</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -23465,13 +23465,13 @@
         <v>162</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -23479,13 +23479,13 @@
         <v>162</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
@@ -23493,13 +23493,13 @@
         <v>162</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72">
@@ -23507,13 +23507,13 @@
         <v>162</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -23521,7 +23521,7 @@
         <v>162</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>46</v>
@@ -23535,13 +23535,13 @@
         <v>162</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -23549,13 +23549,13 @@
         <v>162</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -23569,7 +23569,7 @@
         <v>46</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
@@ -23583,7 +23583,7 @@
         <v>46</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -23619,7 +23619,7 @@
         <v>179</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>46</v>
@@ -23661,13 +23661,13 @@
         <v>183</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -23675,7 +23675,7 @@
         <v>183</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>46</v>
@@ -23689,7 +23689,7 @@
         <v>183</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>46</v>
@@ -23703,13 +23703,13 @@
         <v>183</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -23745,7 +23745,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>46</v>
@@ -23759,7 +23759,7 @@
         <v>198</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>46</v>
@@ -23773,13 +23773,13 @@
         <v>177</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
@@ -23787,7 +23787,7 @@
         <v>177</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>46</v>
@@ -23801,13 +23801,13 @@
         <v>177</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
@@ -23815,7 +23815,7 @@
         <v>202</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>46</v>
@@ -23829,13 +23829,13 @@
         <v>206</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -23843,7 +23843,7 @@
         <v>206</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>46</v>
@@ -23857,7 +23857,7 @@
         <v>206</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>46</v>
@@ -23871,13 +23871,13 @@
         <v>206</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -23885,13 +23885,13 @@
         <v>206</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -23899,13 +23899,13 @@
         <v>206</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -23913,7 +23913,7 @@
         <v>211</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>46</v>
@@ -23927,7 +23927,7 @@
         <v>215</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>46</v>
@@ -23975,7 +23975,7 @@
         <v>46</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>481</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -23983,13 +23983,13 @@
         <v>219</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
@@ -23997,7 +23997,7 @@
         <v>219</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>46</v>
@@ -24011,13 +24011,13 @@
         <v>219</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>132</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109">
@@ -24025,7 +24025,7 @@
         <v>221</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>46</v>
@@ -24045,7 +24045,7 @@
         <v>46</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111">
@@ -24087,7 +24087,7 @@
         <v>46</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -24115,7 +24115,7 @@
         <v>46</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>153</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -24129,7 +24129,7 @@
         <v>46</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117">
@@ -24143,7 +24143,7 @@
         <v>46</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
@@ -24157,7 +24157,7 @@
         <v>46</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -24165,7 +24165,7 @@
         <v>207</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>46</v>
@@ -24179,13 +24179,13 @@
         <v>207</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -24193,13 +24193,13 @@
         <v>207</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -24207,7 +24207,7 @@
         <v>207</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>46</v>
@@ -24221,13 +24221,13 @@
         <v>207</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -24235,13 +24235,13 @@
         <v>207</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -24249,7 +24249,7 @@
         <v>237</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>46</v>
@@ -24353,7 +24353,7 @@
         <v>46</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -24381,7 +24381,7 @@
         <v>46</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>14</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135">
@@ -24395,7 +24395,7 @@
         <v>46</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>14</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136">
@@ -24403,13 +24403,13 @@
         <v>286</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>311</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
@@ -24417,13 +24417,13 @@
         <v>286</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>503</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -24459,7 +24459,7 @@
         <v>69</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>46</v>
@@ -24473,13 +24473,13 @@
         <v>69</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -24487,13 +24487,13 @@
         <v>69</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
@@ -24501,13 +24501,13 @@
         <v>69</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144">
@@ -24515,13 +24515,13 @@
         <v>69</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145">
@@ -24529,13 +24529,13 @@
         <v>69</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -24543,13 +24543,13 @@
         <v>69</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -24557,13 +24557,13 @@
         <v>69</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -24571,13 +24571,13 @@
         <v>69</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149">
@@ -24599,13 +24599,13 @@
         <v>413</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151">
@@ -24613,13 +24613,13 @@
         <v>413</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -24633,7 +24633,7 @@
         <v>46</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>194</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -24647,7 +24647,7 @@
         <v>46</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>14</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154">
@@ -24725,7 +24725,7 @@
         <v>155</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>46</v>
@@ -24739,7 +24739,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>46</v>
@@ -24753,7 +24753,7 @@
         <v>320</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>46</v>
@@ -24795,13 +24795,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165">
@@ -24809,13 +24809,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="166">
@@ -24823,13 +24823,13 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -24837,7 +24837,7 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>46</v>
@@ -24851,13 +24851,13 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -24865,13 +24865,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -24879,7 +24879,7 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>46</v>
@@ -24893,13 +24893,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172">
@@ -24907,13 +24907,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -24927,7 +24927,7 @@
         <v>332</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="174">
@@ -24941,7 +24941,7 @@
         <v>332</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>23</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175">
@@ -24955,7 +24955,7 @@
         <v>332</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>18</v>
+        <v>390</v>
       </c>
     </row>
     <row r="176">
@@ -24969,7 +24969,7 @@
         <v>332</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>515</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -24977,13 +24977,13 @@
         <v>330</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>23</v>
+        <v>516</v>
       </c>
     </row>
     <row r="178">
@@ -25025,7 +25025,7 @@
         <v>332</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>23</v>
+        <v>390</v>
       </c>
     </row>
     <row r="181">
@@ -25053,7 +25053,7 @@
         <v>332</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>390</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
@@ -25067,7 +25067,7 @@
         <v>332</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
@@ -25081,7 +25081,7 @@
         <v>332</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>18</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185">
@@ -25123,7 +25123,7 @@
         <v>332</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -25137,7 +25137,7 @@
         <v>332</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>325</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9290" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="640">
   <si>
     <t>Class Name</t>
   </si>
@@ -1275,13 +1275,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>activityService</t>
   </si>
   <si>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityDTOModelMapper</t>
+  </si>
+  <si>
     <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
   </si>
   <si>
-    <t>activityDTOModelMapper</t>
+    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
   </si>
   <si>
     <t>operationHttpStatusMapper</t>
@@ -1290,145 +1305,133 @@
     <t>org.andante.mappers.OperationHttpStatusMapper</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
   </si>
   <si>
-    <t>NULL_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_MESSAGE</t>
-  </si>
-  <si>
-    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
     <t>int[]</t>
   </si>
   <si>
+    <t>eventTimestamp</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>acknowledgedUsers</t>
   </si>
   <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
+    <t>relatedId</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
     <t>affectsAll</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
-    <t>affectedUsers</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>relatedId</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
+    <t>communityImageUrl</t>
+  </si>
+  <si>
     <t>observedUsers</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
     <t>observingUsers</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>communityImageUrl</t>
-  </si>
-  <si>
     <t>recommendationService</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>smtpAuth</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
     <t>userProfileService</t>
   </si>
   <si>
+    <t>jwtTokenDecoder</t>
+  </si>
+  <si>
+    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>profileService</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>userProfileMapper</t>
+  </si>
+  <si>
     <t>USERNAME_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileMapper</t>
-  </si>
-  <si>
-    <t>profileService</t>
-  </si>
-  <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
+    <t>affectsAll$set</t>
   </si>
   <si>
     <t>affectsAll$value</t>
   </si>
   <si>
-    <t>affectsAll$set</t>
+    <t>isConfirmed</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
   </si>
   <si>
     <t>subscriptionDate</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>isConfirmed</t>
+    <t>keycloakGetUserPath</t>
   </si>
   <si>
     <t>adminPassword</t>
@@ -1437,22 +1440,34 @@
     <t>keycloakAdminTokenPath</t>
   </si>
   <si>
-    <t>keycloakGetUserPath</t>
-  </si>
-  <si>
     <t>adminUsername</t>
   </si>
   <si>
+    <t>keycloakUpdateUserPath</t>
+  </si>
+  <si>
     <t>keycloakUrl</t>
   </si>
   <si>
-    <t>keycloakUpdateUserPath</t>
+    <t>observed</t>
   </si>
   <si>
     <t>observers</t>
   </si>
   <si>
-    <t>observed</t>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>mailSender</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
   <si>
     <t>templateEngine</t>
@@ -1464,36 +1479,24 @@
     <t>NEWSLETTER_TITLE</t>
   </si>
   <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>mailSender</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
+    <t>userProfileRepository</t>
+  </si>
+  <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>userProfileModelEntityMapper</t>
   </si>
   <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>issuerUri</t>
   </si>
   <si>
+    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
@@ -1503,9 +1506,6 @@
     <t>newsletterMapper</t>
   </si>
   <si>
-    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>privateToken</t>
   </si>
   <si>
@@ -1515,39 +1515,39 @@
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityRepository</t>
+  </si>
+  <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+  </si>
+  <si>
+    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
     <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityRepository</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
     <t>activityModelEntityMapper</t>
   </si>
   <si>
-    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>newsletterService</t>
   </si>
   <si>
@@ -1557,18 +1557,48 @@
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
     <t>values</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
     <t>val$productOutputDTO</t>
   </si>
   <si>
@@ -1578,36 +1608,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1674,109 +1674,274 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>ActivityController(org.andante.activity.logic.ActivityService, org.andante.activity.controller.mapper.ActivityDTOModelMapper, org.andante.mappers.OperationHttpStatusMapper)</t>
+  </si>
+  <si>
+    <t>ActivityDTOModelMapper()</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>KafkaGramophonesConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>ActivityModelEntityMapper()</t>
+  </si>
+  <si>
+    <t>KafkaMicrophoneVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>ActivityEntity(java.lang.String, java.util.Set, java.util.Set, java.lang.String, org.andante.activity.enums.Domain, org.andante.activity.enums.Priority, java.lang.String, java.lang.Boolean, java.time.LocalDateTime)</t>
+  </si>
+  <si>
+    <t>ActivityEntity()</t>
+  </si>
+  <si>
+    <t>KafkaOrderEntryConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>JWTTokenDecoder(org.springframework.security.oauth2.jwt.JwtDecoder)</t>
+  </si>
+  <si>
+    <t>UserProfile$UserProfileBuilder()</t>
+  </si>
+  <si>
+    <t>KafkaMicrophoneConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>UserProfileDTOModelMapper()</t>
+  </si>
+  <si>
+    <t>KafkaGramophoneVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>KafkaAmplifiersConsumer(org.andante.activity.logic.ActivityService, org.andante.activity.logic.RecommendationService)</t>
+  </si>
+  <si>
+    <t>KafkaProductCommentConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>EmailConfiguration()</t>
+  </si>
+  <si>
+    <t>ActivityApplication()</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>ProfileController(org.andante.activity.controller.decoder.JWTTokenDecoder, org.andante.activity.logic.ProfileService, org.andante.activity.logic.UserProfileService, org.andante.activity.controller.mapper.UserProfileDTOModelMapper)</t>
+  </si>
+  <si>
+    <t>KafkaSubwoofersVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>UserProfile(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set)</t>
+  </si>
+  <si>
+    <t>NewsletterModelEntityMapper()</t>
+  </si>
+  <si>
+    <t>NewsletterDTOModelMapper()</t>
+  </si>
+  <si>
+    <t>Activity$ActivityBuilder()</t>
+  </si>
+  <si>
+    <t>NewsletterEntity(java.lang.String, java.time.LocalDateTime, java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>NewsletterEntity()</t>
+  </si>
+  <si>
+    <t>KafkaOrderConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>DefaultProfileService(org.andante.activity.logic.UserProfileService)</t>
+  </si>
+  <si>
+    <t>Newsletter$NewsletterBuilder()</t>
+  </si>
+  <si>
+    <t>NewsletterEntity$NewsletterEntityBuilder()</t>
+  </si>
+  <si>
+    <t>KafkaHeadphonesVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>UserProfileEntity$UserProfileEntityBuilder()</t>
+  </si>
+  <si>
+    <t>KafkaAmplifiersVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>KafkaSpeakersVariantConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>EmailSender(org.springframework.mail.javamail.JavaMailSender, org.thymeleaf.TemplateEngine)</t>
+  </si>
+  <si>
+    <t>KafkaSpeakersConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DefaultUserProfileService(org.andante.activity.repository.UserProfileRepository, org.andante.activity.logic.mapper.UserProfileModelEntityMapper)</t>
+  </si>
+  <si>
+    <t>SecurityConfiguration()</t>
+  </si>
+  <si>
+    <t>DefaultNewsletterService(org.andante.activity.repository.NewsletterRepository, org.andante.activity.logic.mapper.NewsletterModelEntityMapper)</t>
+  </si>
+  <si>
+    <t>UserProfileEntity(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set)</t>
+  </si>
+  <si>
+    <t>UserProfileEntity()</t>
+  </si>
+  <si>
+    <t>KafkaSubwoofersConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>UserProfileModelEntityMapper(org.andante.activity.repository.UserProfileRepository)</t>
+  </si>
+  <si>
+    <t>ActivityConfiguration()</t>
+  </si>
+  <si>
+    <t>KafkaProductConsumerConfig()</t>
+  </si>
+  <si>
+    <t>DefaultActivityService(org.andante.activity.repository.ActivityRepository, org.andante.activity.logic.mapper.ActivityModelEntityMapper, cz.jirutka.rsql.parser.RSQLParser, org.andante.rsql.PersistentRSQLVisitor)</t>
+  </si>
+  <si>
+    <t>ActivityEntity$ActivityEntityBuilder()</t>
+  </si>
+  <si>
+    <t>ActivityExceptionHandler()</t>
+  </si>
+  <si>
+    <t>NewsletterController(org.andante.activity.logic.NewsletterService, org.andante.activity.controller.mapper.NewsletterDTOModelMapper, org.andante.activity.controller.email.EmailSender)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Newsletter(java.lang.String, java.time.LocalDateTime, java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>KafkaHeadphonesConsumer(org.andante.activity.logic.ActivityService)</t>
+  </si>
+  <si>
+    <t>DefaultRecommendationService(org.andante.activity.configuration.ActivityConfiguration)</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>Activity(java.lang.String, java.util.Set, java.util.Set, java.lang.String, java.lang.String, org.andante.activity.enums.Domain, org.andante.activity.enums.Priority, java.lang.Boolean, java.time.LocalDateTime)</t>
+  </si>
+  <si>
+    <t>DefaultRecommendationService$1(org.andante.activity.logic.impl.DefaultRecommendationService, org.andante.product.dto.ProductOutputDTO)</t>
   </si>
 </sst>
 </file>
@@ -17759,7 +17924,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
@@ -17767,7 +17932,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6">
@@ -17775,7 +17940,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7">
@@ -17783,7 +17948,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
@@ -17791,7 +17956,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
@@ -17799,7 +17964,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
@@ -17807,7 +17972,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
@@ -17815,7 +17980,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12">
@@ -17823,7 +17988,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
@@ -17831,7 +17996,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
@@ -17839,7 +18004,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15">
@@ -17847,7 +18012,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16">
@@ -17871,7 +18036,7 @@
         <v>105</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
@@ -17879,7 +18044,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20">
@@ -17887,7 +18052,7 @@
         <v>110</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21">
@@ -17895,7 +18060,7 @@
         <v>114</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22">
@@ -17903,7 +18068,7 @@
         <v>118</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23">
@@ -17919,7 +18084,7 @@
         <v>126</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25">
@@ -17935,7 +18100,7 @@
         <v>133</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27">
@@ -17943,7 +18108,7 @@
         <v>408</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28">
@@ -17951,7 +18116,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29">
@@ -17959,7 +18124,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30">
@@ -17967,7 +18132,7 @@
         <v>152</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31">
@@ -17975,7 +18140,7 @@
         <v>153</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32">
@@ -17983,7 +18148,7 @@
         <v>158</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33">
@@ -17991,7 +18156,7 @@
         <v>162</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34">
@@ -17999,7 +18164,7 @@
         <v>157</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35">
@@ -18007,7 +18172,7 @@
         <v>178</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36">
@@ -18015,7 +18180,7 @@
         <v>179</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37">
@@ -18023,7 +18188,7 @@
         <v>183</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38">
@@ -18031,7 +18196,7 @@
         <v>194</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39">
@@ -18039,7 +18204,7 @@
         <v>198</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40">
@@ -18047,7 +18212,7 @@
         <v>177</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41">
@@ -18055,7 +18220,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42">
@@ -18071,7 +18236,7 @@
         <v>211</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44">
@@ -18079,7 +18244,7 @@
         <v>215</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45">
@@ -18087,7 +18252,7 @@
         <v>219</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46">
@@ -18095,7 +18260,7 @@
         <v>221</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47">
@@ -18103,7 +18268,7 @@
         <v>225</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48">
@@ -18111,7 +18276,7 @@
         <v>228</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49">
@@ -18127,7 +18292,7 @@
         <v>207</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51">
@@ -18135,7 +18300,7 @@
         <v>237</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52">
@@ -18143,7 +18308,7 @@
         <v>241</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>570</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53">
@@ -18151,7 +18316,7 @@
         <v>244</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54">
@@ -18159,7 +18324,7 @@
         <v>245</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55">
@@ -18167,7 +18332,7 @@
         <v>248</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56">
@@ -18175,7 +18340,7 @@
         <v>249</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57">
@@ -18183,7 +18348,7 @@
         <v>252</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58">
@@ -18191,7 +18356,7 @@
         <v>286</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59">
@@ -18199,7 +18364,7 @@
         <v>303</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60">
@@ -18207,7 +18372,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61">
@@ -18223,7 +18388,7 @@
         <v>311</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63">
@@ -18231,7 +18396,7 @@
         <v>316</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64">
@@ -18239,7 +18404,7 @@
         <v>413</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65">
@@ -18247,7 +18412,7 @@
         <v>317</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66">
@@ -18255,7 +18420,7 @@
         <v>318</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67">
@@ -18263,7 +18428,7 @@
         <v>319</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68">
@@ -18271,7 +18436,7 @@
         <v>155</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69">
@@ -18279,7 +18444,7 @@
         <v>320</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70">
@@ -18287,7 +18452,7 @@
         <v>324</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71">
@@ -18295,7 +18460,7 @@
         <v>325</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72">
@@ -18303,7 +18468,7 @@
         <v>328</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73">
@@ -18311,7 +18476,7 @@
         <v>43</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74">
@@ -18319,7 +18484,7 @@
         <v>330</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -18329,7 +18494,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18453,7 +18618,7 @@
         <v>297</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12">
@@ -18464,7 +18629,7 @@
         <v>292</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13">
@@ -18475,7 +18640,7 @@
         <v>296</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14">
@@ -18486,7 +18651,7 @@
         <v>301</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15">
@@ -18497,7 +18662,7 @@
         <v>407</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16">
@@ -18508,7 +18673,7 @@
         <v>294</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17">
@@ -18519,7 +18684,7 @@
         <v>295</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18">
@@ -18530,18 +18695,18 @@
         <v>289</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>578</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20">
@@ -18549,7 +18714,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>540</v>
@@ -18557,24 +18722,24 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>579</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23">
@@ -18582,10 +18747,10 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24">
@@ -18593,29 +18758,29 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>540</v>
@@ -18623,87 +18788,87 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>57</v>
+        <v>581</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>48</v>
+        <v>582</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>540</v>
@@ -18711,10 +18876,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>60</v>
+        <v>583</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>540</v>
@@ -18725,7 +18890,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>540</v>
@@ -18736,7 +18901,7 @@
         <v>54</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>540</v>
@@ -18747,7 +18912,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>540</v>
@@ -18758,7 +18923,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>540</v>
@@ -18769,7 +18934,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>540</v>
@@ -18780,7 +18945,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>540</v>
@@ -18791,7 +18956,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>540</v>
@@ -18802,7 +18967,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>540</v>
@@ -18813,7 +18978,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>540</v>
@@ -18824,7 +18989,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>540</v>
@@ -18835,7 +19000,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>540</v>
@@ -18846,7 +19011,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>540</v>
@@ -18857,7 +19022,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>540</v>
@@ -18868,7 +19033,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>540</v>
@@ -18876,43 +19041,43 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>540</v>
@@ -18920,208 +19085,208 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>533</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>95</v>
+        <v>585</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>99</v>
+        <v>586</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>570</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>106</v>
+        <v>587</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>540</v>
@@ -19129,84 +19294,84 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>570</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>556</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>48</v>
@@ -19217,241 +19382,241 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>128</v>
+        <v>589</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>48</v>
+        <v>590</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>412</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>410</v>
+        <v>591</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>568</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>408</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>408</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>408</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>408</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>411</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>408</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>15</v>
+        <v>592</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>409</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>68</v>
+        <v>594</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>540</v>
@@ -19459,98 +19624,98 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>150</v>
+        <v>595</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>151</v>
+        <v>412</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>145</v>
+        <v>410</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>540</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>143</v>
+        <v>411</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>540</v>
@@ -19558,21 +19723,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>140</v>
+        <v>409</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>540</v>
@@ -19580,54 +19745,54 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>5</v>
+        <v>597</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>540</v>
@@ -19635,10 +19800,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>156</v>
+        <v>598</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>540</v>
@@ -19646,10 +19811,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>540</v>
@@ -19657,10 +19822,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>540</v>
@@ -19668,120 +19833,120 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>540</v>
@@ -19789,21 +19954,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>540</v>
@@ -19811,21 +19976,21 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>540</v>
@@ -19833,21 +19998,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>540</v>
@@ -19855,10 +20020,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>540</v>
@@ -19866,241 +20031,241 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>180</v>
+        <v>602</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>570</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>62</v>
+        <v>603</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>570</v>
+        <v>596</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>195</v>
+        <v>604</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>540</v>
@@ -20108,10 +20273,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>540</v>
@@ -20119,98 +20284,98 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>200</v>
+        <v>605</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>201</v>
+        <v>606</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>570</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>205</v>
+        <v>607</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>540</v>
@@ -20218,406 +20383,406 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>570</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>213</v>
+        <v>609</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>556</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>570</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>578</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>570</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>17</v>
+        <v>611</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>32</v>
+        <v>612</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>540</v>
@@ -20625,10 +20790,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>540</v>
@@ -20636,54 +20801,54 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>66</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>540</v>
@@ -20691,10 +20856,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>235</v>
+        <v>614</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>540</v>
@@ -20702,43 +20867,43 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>540</v>
@@ -20746,10 +20911,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>234</v>
+        <v>615</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>540</v>
@@ -20757,76 +20922,76 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>540</v>
+        <v>616</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>239</v>
+        <v>617</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>247</v>
+        <v>618</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>540</v>
@@ -20834,197 +20999,197 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>556</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>540</v>
+        <v>568</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>256</v>
+        <v>620</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>285</v>
+        <v>621</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>540</v>
@@ -21032,21 +21197,21 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>267</v>
+        <v>622</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>540</v>
@@ -21054,10 +21219,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>540</v>
@@ -21065,10 +21230,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>540</v>
@@ -21076,10 +21241,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>540</v>
@@ -21087,10 +21252,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>540</v>
@@ -21098,10 +21263,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>540</v>
@@ -21109,10 +21274,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>540</v>
@@ -21120,10 +21285,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>540</v>
@@ -21131,10 +21296,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>540</v>
@@ -21142,10 +21307,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>540</v>
@@ -21153,10 +21318,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>540</v>
@@ -21164,10 +21329,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>540</v>
@@ -21175,10 +21340,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>540</v>
@@ -21186,318 +21351,318 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>274</v>
+        <v>623</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>297</v>
+        <v>624</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>298</v>
+        <v>625</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>568</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>583</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>288</v>
+        <v>626</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>299</v>
+        <v>627</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>540</v>
@@ -21505,98 +21670,98 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>413</v>
+        <v>252</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>413</v>
+        <v>252</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>413</v>
+        <v>252</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>540</v>
@@ -21604,10 +21769,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>540</v>
@@ -21615,10 +21780,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>540</v>
@@ -21626,10 +21791,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>540</v>
@@ -21637,10 +21802,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>540</v>
@@ -21648,10 +21813,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>540</v>
@@ -21659,10 +21824,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>540</v>
@@ -21670,274 +21835,274 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>5</v>
+        <v>628</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>540</v>
+        <v>596</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>556</v>
+        <v>596</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>540</v>
+        <v>619</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>533</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>294</v>
+        <v>629</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>533</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>540</v>
@@ -21945,10 +22110,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>540</v>
@@ -21956,32 +22121,32 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>540</v>
@@ -21989,10 +22154,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>540</v>
@@ -22000,10 +22165,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>540</v>
@@ -22011,120 +22176,120 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>77</v>
+        <v>631</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>82</v>
+        <v>632</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>540</v>
@@ -22132,21 +22297,21 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>540</v>
@@ -22154,24 +22319,607 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>584</v>
+        <v>540</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>540</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -22533,7 +23281,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>324</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -22561,7 +23309,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>39</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -22575,7 +23323,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>421</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -22583,7 +23331,7 @@
         <v>406</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>46</v>
@@ -22597,13 +23345,13 @@
         <v>406</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -22611,7 +23359,7 @@
         <v>406</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>46</v>
@@ -22625,7 +23373,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>46</v>
@@ -22639,13 +23387,13 @@
         <v>406</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11">
@@ -22709,7 +23457,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>46</v>
@@ -22737,7 +23485,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>46</v>
@@ -22757,7 +23505,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -22771,7 +23519,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -22785,7 +23533,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -22799,7 +23547,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -22813,7 +23561,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -22827,7 +23575,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -22841,7 +23589,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -22855,7 +23603,7 @@
         <v>46</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -22869,7 +23617,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -22877,7 +23625,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>46</v>
@@ -22953,7 +23701,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -22995,7 +23743,7 @@
         <v>46</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -23031,7 +23779,7 @@
         <v>110</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>46</v>
@@ -23045,7 +23793,7 @@
         <v>118</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>46</v>
@@ -23059,7 +23807,7 @@
         <v>122</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>46</v>
@@ -23087,7 +23835,7 @@
         <v>126</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>46</v>
@@ -23101,7 +23849,7 @@
         <v>130</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>46</v>
@@ -23115,7 +23863,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>46</v>
@@ -23135,7 +23883,7 @@
         <v>46</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>14</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46">
@@ -23143,7 +23891,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>46</v>
@@ -23157,7 +23905,7 @@
         <v>130</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>46</v>
@@ -23171,13 +23919,13 @@
         <v>130</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>454</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -23205,7 +23953,7 @@
         <v>46</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
@@ -23233,7 +23981,7 @@
         <v>46</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -23247,7 +23995,7 @@
         <v>46</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -23261,7 +24009,7 @@
         <v>46</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -23289,7 +24037,7 @@
         <v>46</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -23311,7 +24059,7 @@
         <v>135</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>46</v>
@@ -23325,7 +24073,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>46</v>
@@ -23339,13 +24087,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -23367,13 +24115,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -23381,13 +24129,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -23395,13 +24143,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -23423,13 +24171,13 @@
         <v>162</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -23437,13 +24185,13 @@
         <v>162</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
@@ -23451,13 +24199,13 @@
         <v>162</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -23465,13 +24213,13 @@
         <v>162</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -23479,13 +24227,13 @@
         <v>162</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -23493,13 +24241,13 @@
         <v>162</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -23507,7 +24255,7 @@
         <v>162</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>46</v>
@@ -23521,13 +24269,13 @@
         <v>162</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74">
@@ -23541,7 +24289,7 @@
         <v>46</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -23549,13 +24297,13 @@
         <v>162</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76">
@@ -23569,7 +24317,7 @@
         <v>46</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -23597,7 +24345,7 @@
         <v>46</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
@@ -23619,7 +24367,7 @@
         <v>179</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>46</v>
@@ -23647,13 +24395,13 @@
         <v>183</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -23661,13 +24409,13 @@
         <v>183</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -23731,13 +24479,13 @@
         <v>198</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -23745,7 +24493,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>46</v>
@@ -23759,13 +24507,13 @@
         <v>198</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
@@ -23773,13 +24521,13 @@
         <v>177</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -23787,13 +24535,13 @@
         <v>177</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
@@ -23807,7 +24555,7 @@
         <v>46</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
@@ -23815,7 +24563,7 @@
         <v>202</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>46</v>
@@ -23829,13 +24577,13 @@
         <v>206</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -23843,13 +24591,13 @@
         <v>206</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -23857,7 +24605,7 @@
         <v>206</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>46</v>
@@ -23871,7 +24619,7 @@
         <v>206</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>46</v>
@@ -23885,13 +24633,13 @@
         <v>206</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -23899,13 +24647,13 @@
         <v>206</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -23913,7 +24661,7 @@
         <v>211</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>46</v>
@@ -23927,7 +24675,7 @@
         <v>215</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>46</v>
@@ -23961,7 +24709,7 @@
         <v>46</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105">
@@ -23989,7 +24737,7 @@
         <v>46</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -24003,7 +24751,7 @@
         <v>46</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>14</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108">
@@ -24011,13 +24759,13 @@
         <v>219</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>484</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -24025,7 +24773,7 @@
         <v>221</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>46</v>
@@ -24045,7 +24793,7 @@
         <v>46</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>245</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
@@ -24059,7 +24807,7 @@
         <v>46</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -24087,7 +24835,7 @@
         <v>46</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114">
@@ -24129,7 +24877,7 @@
         <v>46</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -24143,7 +24891,7 @@
         <v>46</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118">
@@ -24157,7 +24905,7 @@
         <v>46</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
@@ -24165,7 +24913,7 @@
         <v>207</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>46</v>
@@ -24179,13 +24927,13 @@
         <v>207</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -24193,13 +24941,13 @@
         <v>207</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -24207,7 +24955,7 @@
         <v>207</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>46</v>
@@ -24221,7 +24969,7 @@
         <v>207</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>46</v>
@@ -24235,7 +24983,7 @@
         <v>207</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>46</v>
@@ -24249,7 +24997,7 @@
         <v>237</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>46</v>
@@ -24277,7 +25025,7 @@
         <v>245</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>46</v>
@@ -24367,7 +25115,7 @@
         <v>46</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>14</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134">
@@ -24381,7 +25129,7 @@
         <v>46</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>311</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135">
@@ -24389,13 +25137,13 @@
         <v>286</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>501</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -24409,7 +25157,7 @@
         <v>46</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>51</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137">
@@ -24417,7 +25165,7 @@
         <v>286</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>46</v>
@@ -24431,13 +25179,13 @@
         <v>286</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>505</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139">
@@ -24465,7 +25213,7 @@
         <v>46</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
@@ -24473,7 +25221,7 @@
         <v>69</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>46</v>
@@ -24487,13 +25235,13 @@
         <v>69</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143">
@@ -24501,13 +25249,13 @@
         <v>69</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -24515,13 +25263,13 @@
         <v>69</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -24529,13 +25277,13 @@
         <v>69</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146">
@@ -24543,13 +25291,13 @@
         <v>69</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -24557,13 +25305,13 @@
         <v>69</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148">
@@ -24571,13 +25319,13 @@
         <v>69</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -24599,13 +25347,13 @@
         <v>413</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -24613,7 +25361,7 @@
         <v>413</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>46</v>
@@ -24627,13 +25375,13 @@
         <v>413</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>14</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153">
@@ -24641,13 +25389,13 @@
         <v>413</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154">
@@ -24655,13 +25403,13 @@
         <v>413</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155">
@@ -24711,13 +25459,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -24731,7 +25479,7 @@
         <v>46</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160">
@@ -24739,13 +25487,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161">
@@ -24753,7 +25501,7 @@
         <v>320</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>46</v>
@@ -24795,13 +25543,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -24809,13 +25557,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166">
@@ -24823,13 +25571,13 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167">
@@ -24837,13 +25585,13 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -24857,7 +25605,7 @@
         <v>46</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -24865,13 +25613,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="170">
@@ -24879,13 +25627,13 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -24893,13 +25641,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172">
@@ -24907,13 +25655,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -24927,7 +25675,7 @@
         <v>332</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174">
@@ -24941,7 +25689,7 @@
         <v>332</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>393</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
@@ -24955,7 +25703,7 @@
         <v>332</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>390</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
@@ -24969,7 +25717,7 @@
         <v>332</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>18</v>
+        <v>390</v>
       </c>
     </row>
     <row r="177">
@@ -24983,7 +25731,7 @@
         <v>332</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>516</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -24991,13 +25739,13 @@
         <v>330</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>23</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179">
@@ -25005,13 +25753,13 @@
         <v>330</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -25019,13 +25767,13 @@
         <v>330</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>390</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -25033,7 +25781,7 @@
         <v>330</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>332</v>
@@ -25047,7 +25795,7 @@
         <v>330</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>332</v>
@@ -25061,7 +25809,7 @@
         <v>330</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>332</v>
@@ -25075,13 +25823,13 @@
         <v>330</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>325</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185">
@@ -25089,13 +25837,13 @@
         <v>330</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -25103,13 +25851,13 @@
         <v>330</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>23</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187">
@@ -25117,13 +25865,13 @@
         <v>330</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>332</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>18</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188">

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="639">
   <si>
     <t>Class Name</t>
   </si>
@@ -1680,9 +1680,6 @@
     <t>73</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -1743,6 +1740,9 @@
     <t>53</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -1846,9 +1846,6 @@
   </si>
   <si>
     <t>KafkaOrderConsumer(org.andante.activity.logic.ActivityService)</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>DefaultProfileService(org.andante.activity.logic.UserProfileService)</t>
@@ -17924,7 +17921,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5">
@@ -17932,7 +17929,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6">
@@ -17940,7 +17937,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7">
@@ -17948,7 +17945,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8">
@@ -17956,7 +17953,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
@@ -17964,7 +17961,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
@@ -17972,7 +17969,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11">
@@ -17980,7 +17977,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12">
@@ -17988,7 +17985,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13">
@@ -18004,7 +18001,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
@@ -18012,7 +18009,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
@@ -18028,7 +18025,7 @@
         <v>97</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18">
@@ -18044,7 +18041,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20">
@@ -18052,7 +18049,7 @@
         <v>110</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21">
@@ -18060,7 +18057,7 @@
         <v>114</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22">
@@ -18068,7 +18065,7 @@
         <v>118</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23">
@@ -18076,7 +18073,7 @@
         <v>122</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24">
@@ -18084,7 +18081,7 @@
         <v>126</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25">
@@ -18092,7 +18089,7 @@
         <v>130</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26">
@@ -18108,7 +18105,7 @@
         <v>408</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28">
@@ -18116,7 +18113,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29">
@@ -18124,7 +18121,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30">
@@ -18132,7 +18129,7 @@
         <v>152</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31">
@@ -18140,7 +18137,7 @@
         <v>153</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32">
@@ -18148,7 +18145,7 @@
         <v>158</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33">
@@ -18156,7 +18153,7 @@
         <v>162</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34">
@@ -18164,7 +18161,7 @@
         <v>157</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35">
@@ -18172,7 +18169,7 @@
         <v>178</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36">
@@ -18180,7 +18177,7 @@
         <v>179</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37">
@@ -18188,7 +18185,7 @@
         <v>183</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38">
@@ -18204,7 +18201,7 @@
         <v>198</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40">
@@ -18212,7 +18209,7 @@
         <v>177</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41">
@@ -18220,7 +18217,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42">
@@ -18228,7 +18225,7 @@
         <v>206</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43">
@@ -18236,7 +18233,7 @@
         <v>211</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44">
@@ -18244,7 +18241,7 @@
         <v>215</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45">
@@ -18252,7 +18249,7 @@
         <v>219</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46">
@@ -18260,7 +18257,7 @@
         <v>221</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47">
@@ -18268,7 +18265,7 @@
         <v>225</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48">
@@ -18276,7 +18273,7 @@
         <v>228</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49">
@@ -18284,7 +18281,7 @@
         <v>231</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50">
@@ -18292,7 +18289,7 @@
         <v>207</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51">
@@ -18300,7 +18297,7 @@
         <v>237</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52">
@@ -18316,7 +18313,7 @@
         <v>244</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54">
@@ -18324,7 +18321,7 @@
         <v>245</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55">
@@ -18332,7 +18329,7 @@
         <v>248</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56">
@@ -18340,7 +18337,7 @@
         <v>249</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57">
@@ -18348,7 +18345,7 @@
         <v>252</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58">
@@ -18356,7 +18353,7 @@
         <v>286</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59">
@@ -18364,7 +18361,7 @@
         <v>303</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60">
@@ -18372,7 +18369,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61">
@@ -18380,7 +18377,7 @@
         <v>304</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62">
@@ -18388,7 +18385,7 @@
         <v>311</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63">
@@ -18396,7 +18393,7 @@
         <v>316</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64">
@@ -18412,7 +18409,7 @@
         <v>317</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66">
@@ -18420,7 +18417,7 @@
         <v>318</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67">
@@ -18428,7 +18425,7 @@
         <v>319</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68">
@@ -18444,7 +18441,7 @@
         <v>320</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70">
@@ -18468,7 +18465,7 @@
         <v>328</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73">
@@ -18484,7 +18481,7 @@
         <v>330</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -18618,7 +18615,7 @@
         <v>297</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12">
@@ -18629,7 +18626,7 @@
         <v>292</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
@@ -18640,7 +18637,7 @@
         <v>296</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
@@ -18651,7 +18648,7 @@
         <v>301</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15">
@@ -18662,7 +18659,7 @@
         <v>407</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16">
@@ -18673,7 +18670,7 @@
         <v>294</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17">
@@ -18684,7 +18681,7 @@
         <v>295</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -18695,7 +18692,7 @@
         <v>289</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19">
@@ -18706,7 +18703,7 @@
         <v>578</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20">
@@ -18739,7 +18736,7 @@
         <v>579</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23">
@@ -18750,7 +18747,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24">
@@ -18761,7 +18758,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25">
@@ -18838,7 +18835,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32">
@@ -18849,7 +18846,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33">
@@ -19124,7 +19121,7 @@
         <v>87</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58">
@@ -19135,7 +19132,7 @@
         <v>85</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59">
@@ -19201,7 +19198,7 @@
         <v>95</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65">
@@ -19223,7 +19220,7 @@
         <v>98</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67">
@@ -19234,7 +19231,7 @@
         <v>101</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68">
@@ -19245,7 +19242,7 @@
         <v>102</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69">
@@ -19256,7 +19253,7 @@
         <v>104</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70">
@@ -19267,7 +19264,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71">
@@ -19278,7 +19275,7 @@
         <v>103</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72">
@@ -19344,7 +19341,7 @@
         <v>112</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78">
@@ -19355,7 +19352,7 @@
         <v>111</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79">
@@ -19421,7 +19418,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85">
@@ -19432,7 +19429,7 @@
         <v>120</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86">
@@ -19443,7 +19440,7 @@
         <v>121</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87">
@@ -19487,7 +19484,7 @@
         <v>123</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91">
@@ -19498,7 +19495,7 @@
         <v>124</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92">
@@ -19531,7 +19528,7 @@
         <v>592</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95">
@@ -19542,7 +19539,7 @@
         <v>128</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
@@ -19553,7 +19550,7 @@
         <v>127</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
@@ -19608,7 +19605,7 @@
         <v>594</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102">
@@ -19630,7 +19627,7 @@
         <v>595</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
@@ -19641,7 +19638,7 @@
         <v>412</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105">
@@ -19652,7 +19649,7 @@
         <v>89</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106">
@@ -19674,7 +19671,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="108">
@@ -19685,7 +19682,7 @@
         <v>17</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109">
@@ -19696,7 +19693,7 @@
         <v>33</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110">
@@ -19707,7 +19704,7 @@
         <v>411</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111">
@@ -19729,7 +19726,7 @@
         <v>409</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113">
@@ -19751,7 +19748,7 @@
         <v>597</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115">
@@ -19762,7 +19759,7 @@
         <v>137</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116">
@@ -19773,7 +19770,7 @@
         <v>136</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117">
@@ -20004,7 +20001,7 @@
         <v>601</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138">
@@ -20070,7 +20067,7 @@
         <v>603</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144">
@@ -20081,7 +20078,7 @@
         <v>98</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145">
@@ -20092,7 +20089,7 @@
         <v>169</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146">
@@ -20103,7 +20100,7 @@
         <v>167</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147">
@@ -20114,7 +20111,7 @@
         <v>163</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148">
@@ -20125,7 +20122,7 @@
         <v>168</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149">
@@ -20136,7 +20133,7 @@
         <v>170</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150">
@@ -20147,7 +20144,7 @@
         <v>164</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151">
@@ -20158,7 +20155,7 @@
         <v>165</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152">
@@ -20169,7 +20166,7 @@
         <v>166</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153">
@@ -20290,7 +20287,7 @@
         <v>605</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164">
@@ -20312,7 +20309,7 @@
         <v>180</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166">
@@ -20323,7 +20320,7 @@
         <v>181</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="167">
@@ -20367,7 +20364,7 @@
         <v>91</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="171">
@@ -20389,7 +20386,7 @@
         <v>189</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173">
@@ -20400,7 +20397,7 @@
         <v>185</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174">
@@ -20411,7 +20408,7 @@
         <v>186</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175">
@@ -20444,7 +20441,7 @@
         <v>190</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>608</v>
+        <v>572</v>
       </c>
     </row>
     <row r="178">
@@ -20455,7 +20452,7 @@
         <v>188</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179">
@@ -20466,7 +20463,7 @@
         <v>184</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180">
@@ -20477,7 +20474,7 @@
         <v>192</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181">
@@ -20485,7 +20482,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>540</v>
@@ -20532,7 +20529,7 @@
         <v>200</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186">
@@ -20543,7 +20540,7 @@
         <v>201</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187">
@@ -20554,7 +20551,7 @@
         <v>199</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188">
@@ -20584,7 +20581,7 @@
         <v>198</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>534</v>
@@ -20598,7 +20595,7 @@
         <v>200</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192">
@@ -20609,7 +20606,7 @@
         <v>201</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193">
@@ -20620,7 +20617,7 @@
         <v>199</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="194">
@@ -20650,7 +20647,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>534</v>
@@ -20664,7 +20661,7 @@
         <v>203</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198">
@@ -20675,7 +20672,7 @@
         <v>205</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="199">
@@ -20705,7 +20702,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>540</v>
@@ -20719,7 +20716,7 @@
         <v>210</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203">
@@ -20730,7 +20727,7 @@
         <v>101</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204">
@@ -20741,7 +20738,7 @@
         <v>102</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205">
@@ -20752,7 +20749,7 @@
         <v>104</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206">
@@ -20763,7 +20760,7 @@
         <v>209</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207">
@@ -20774,7 +20771,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="208">
@@ -20804,7 +20801,7 @@
         <v>206</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>534</v>
@@ -20818,7 +20815,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212">
@@ -20829,7 +20826,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213">
@@ -20859,7 +20856,7 @@
         <v>211</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>540</v>
@@ -20873,7 +20870,7 @@
         <v>216</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="217">
@@ -20884,7 +20881,7 @@
         <v>217</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="218">
@@ -20914,7 +20911,7 @@
         <v>215</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>540</v>
@@ -20928,7 +20925,7 @@
         <v>220</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222">
@@ -20936,10 +20933,10 @@
         <v>219</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="223">
@@ -20950,7 +20947,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="224">
@@ -20961,7 +20958,7 @@
         <v>223</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225">
@@ -20991,7 +20988,7 @@
         <v>221</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>540</v>
@@ -21016,7 +21013,7 @@
         <v>30</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230">
@@ -21027,7 +21024,7 @@
         <v>27</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231">
@@ -21038,7 +21035,7 @@
         <v>17</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="232">
@@ -21049,7 +21046,7 @@
         <v>33</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233">
@@ -21060,7 +21057,7 @@
         <v>11</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="234">
@@ -21071,7 +21068,7 @@
         <v>15</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235">
@@ -21082,7 +21079,7 @@
         <v>25</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="236">
@@ -21093,7 +21090,7 @@
         <v>32</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237">
@@ -21104,7 +21101,7 @@
         <v>226</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238">
@@ -21115,7 +21112,7 @@
         <v>227</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239">
@@ -21123,10 +21120,10 @@
         <v>225</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="240">
@@ -21145,10 +21142,10 @@
         <v>228</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="242">
@@ -21159,7 +21156,7 @@
         <v>195</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243">
@@ -21170,7 +21167,7 @@
         <v>196</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="244">
@@ -21200,10 +21197,10 @@
         <v>231</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247">
@@ -21354,10 +21351,10 @@
         <v>207</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261">
@@ -21365,7 +21362,7 @@
         <v>207</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>534</v>
@@ -21379,7 +21376,7 @@
         <v>239</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263">
@@ -21390,7 +21387,7 @@
         <v>238</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264">
@@ -21420,7 +21417,7 @@
         <v>237</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>540</v>
@@ -21456,7 +21453,7 @@
         <v>246</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270">
@@ -21464,7 +21461,7 @@
         <v>245</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>540</v>
@@ -21486,10 +21483,10 @@
         <v>249</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="273">
@@ -21500,7 +21497,7 @@
         <v>266</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="274">
@@ -21511,7 +21508,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="275">
@@ -21522,7 +21519,7 @@
         <v>278</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="276">
@@ -21533,7 +21530,7 @@
         <v>269</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="277">
@@ -21544,7 +21541,7 @@
         <v>259</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="278">
@@ -21555,7 +21552,7 @@
         <v>268</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="279">
@@ -21566,7 +21563,7 @@
         <v>260</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="280">
@@ -21577,7 +21574,7 @@
         <v>277</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="281">
@@ -21588,7 +21585,7 @@
         <v>264</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="282">
@@ -21599,7 +21596,7 @@
         <v>256</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283">
@@ -21610,7 +21607,7 @@
         <v>270</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="284">
@@ -21621,7 +21618,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285">
@@ -21632,7 +21629,7 @@
         <v>265</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286">
@@ -21643,7 +21640,7 @@
         <v>276</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287">
@@ -21654,7 +21651,7 @@
         <v>258</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288">
@@ -21838,10 +21835,10 @@
         <v>252</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="305">
@@ -21863,7 +21860,7 @@
         <v>295</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307">
@@ -21874,7 +21871,7 @@
         <v>292</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="308">
@@ -21885,7 +21882,7 @@
         <v>301</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="309">
@@ -21896,7 +21893,7 @@
         <v>296</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="310">
@@ -21918,7 +21915,7 @@
         <v>294</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312">
@@ -21929,7 +21926,7 @@
         <v>287</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="313">
@@ -21940,7 +21937,7 @@
         <v>302</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314">
@@ -21951,7 +21948,7 @@
         <v>288</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="315">
@@ -21962,7 +21959,7 @@
         <v>289</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="316">
@@ -21992,10 +21989,10 @@
         <v>286</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="319">
@@ -22006,7 +22003,7 @@
         <v>210</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="320">
@@ -22017,7 +22014,7 @@
         <v>169</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321">
@@ -22028,7 +22025,7 @@
         <v>167</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="322">
@@ -22039,7 +22036,7 @@
         <v>163</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="323">
@@ -22050,7 +22047,7 @@
         <v>170</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="324">
@@ -22061,7 +22058,7 @@
         <v>164</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="325">
@@ -22072,7 +22069,7 @@
         <v>168</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="326">
@@ -22083,7 +22080,7 @@
         <v>165</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="327">
@@ -22094,7 +22091,7 @@
         <v>166</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328">
@@ -22124,7 +22121,7 @@
         <v>69</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>534</v>
@@ -22138,7 +22135,7 @@
         <v>307</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="332">
@@ -22182,7 +22179,7 @@
         <v>309</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="336">
@@ -22190,7 +22187,7 @@
         <v>304</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>534</v>
@@ -22248,7 +22245,7 @@
         <v>195</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="342">
@@ -22259,7 +22256,7 @@
         <v>196</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="343">
@@ -22270,7 +22267,7 @@
         <v>197</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="344">
@@ -22278,10 +22275,10 @@
         <v>413</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="345">
@@ -22369,7 +22366,7 @@
         <v>5</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="353">
@@ -22410,10 +22407,10 @@
         <v>155</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="357">
@@ -22424,7 +22421,7 @@
         <v>322</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="358">
@@ -22435,7 +22432,7 @@
         <v>321</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="359">
@@ -22465,7 +22462,7 @@
         <v>320</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>540</v>
@@ -22600,7 +22597,7 @@
         <v>242</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="374">
@@ -22622,7 +22619,7 @@
         <v>326</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="376">
@@ -22630,7 +22627,7 @@
         <v>325</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>540</v>
@@ -22644,7 +22641,7 @@
         <v>329</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="378">
@@ -22864,7 +22861,7 @@
         <v>5</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="398">
@@ -22886,7 +22883,7 @@
         <v>22</v>
       </c>
       <c r="C399" t="s" s="0">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="400">
@@ -22905,7 +22902,7 @@
         <v>43</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>575</v>
@@ -22916,10 +22913,10 @@
         <v>330</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C402" t="s" s="0">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -1437,93 +1437,93 @@
     <t>NULL_PAGE_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityService</t>
+  </si>
+  <si>
+    <t>activityDTOModelMapper</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
   </si>
   <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityService</t>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
   </si>
   <si>
     <t>IDENTIFIERS_LIST_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityDTOModelMapper</t>
-  </si>
-  <si>
     <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
   </si>
   <si>
-    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
     <t>int[]</t>
   </si>
   <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
+    <t>acknowledgedUsers</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>relatedId</t>
+  </si>
+  <si>
+    <t>eventTimestamp</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>affectsAll</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>affectedUsers</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>acknowledgedUsers</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>relatedId</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>observedUsers</t>
+  </si>
+  <si>
+    <t>communityImageUrl</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>imageUrl</t>
   </si>
   <si>
-    <t>communityImageUrl</t>
-  </si>
-  <si>
-    <t>observedUsers</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>observingUsers</t>
   </si>
   <si>
@@ -1536,45 +1536,45 @@
     <t>java.lang.Integer</t>
   </si>
   <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>smtpAuth</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>smtpAuth</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>jwtTokenDecoder</t>
   </si>
   <si>
     <t>profileService</t>
   </si>
   <si>
+    <t>userProfileService</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileService</t>
+    <t>userProfileMapper</t>
   </si>
   <si>
     <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>userProfileMapper</t>
-  </si>
-  <si>
     <t>affectsAll$value</t>
   </si>
   <si>
@@ -1593,39 +1593,42 @@
     <t>keycloakUpdateUserPath</t>
   </si>
   <si>
+    <t>keycloakGetUserPath</t>
+  </si>
+  <si>
+    <t>keycloakUrl</t>
+  </si>
+  <si>
+    <t>keycloakAdminTokenPath</t>
+  </si>
+  <si>
+    <t>adminUsername</t>
+  </si>
+  <si>
     <t>adminPassword</t>
   </si>
   <si>
-    <t>adminUsername</t>
-  </si>
-  <si>
-    <t>keycloakUrl</t>
-  </si>
-  <si>
-    <t>keycloakGetUserPath</t>
-  </si>
-  <si>
-    <t>keycloakAdminTokenPath</t>
-  </si>
-  <si>
     <t>observed</t>
   </si>
   <si>
     <t>observers</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TITLE</t>
+  </si>
+  <si>
     <t>sender</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_TITLE</t>
-  </si>
-  <si>
     <t>mailSender</t>
   </si>
   <si>
@@ -1635,7 +1638,10 @@
     <t>org.thymeleaf.TemplateEngine</t>
   </si>
   <si>
-    <t>NEWSLETTER_TEMPLATE</t>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>userProfileRepository</t>
   </si>
   <si>
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
@@ -1644,127 +1650,121 @@
     <t>userProfileModelEntityMapper</t>
   </si>
   <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
     <t>issuerUri</t>
   </si>
   <si>
+    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>newsletterRepository</t>
+  </si>
+  <si>
     <t>newsletterMapper</t>
   </si>
   <si>
     <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>newsletterRepository</t>
+    <t>privateToken</t>
   </si>
   <si>
     <t>databaseId</t>
   </si>
   <si>
-    <t>privateToken</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityModelEntityMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>rsqlParser</t>
   </si>
   <si>
     <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
-    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityModelEntityMapper</t>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
     <t>activityRepository</t>
   </si>
   <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+    <t>emailSender</t>
+  </si>
+  <si>
+    <t>newsletterService</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>emailSender</t>
-  </si>
-  <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>newsletterService</t>
-  </si>
-  <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
     <t>val$productOutputDTO</t>
   </si>
   <si>
     <t>org.andante.product.dto.ProductOutputDTO</t>
   </si>
   <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>TREEIFY_THRESHOLD</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
     <t>MIN_TREEIFY_CAPACITY</t>
   </si>
   <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
     <t>values</t>
-  </si>
-  <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>entrySet</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -24034,7 +24034,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4">
@@ -24042,13 +24042,13 @@
         <v>456</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>473</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -24104,7 +24104,7 @@
         <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -24132,7 +24132,7 @@
         <v>47</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -24244,7 +24244,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -24258,7 +24258,7 @@
         <v>47</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -24272,7 +24272,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -24286,7 +24286,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -24300,7 +24300,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -24314,7 +24314,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -24328,7 +24328,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -24342,7 +24342,7 @@
         <v>47</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -24356,7 +24356,7 @@
         <v>47</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -24440,7 +24440,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -24468,7 +24468,7 @@
         <v>47</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -24602,7 +24602,7 @@
         <v>145</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>47</v>
@@ -24616,7 +24616,7 @@
         <v>145</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>47</v>
@@ -24630,7 +24630,7 @@
         <v>145</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>47</v>
@@ -24644,7 +24644,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>47</v>
@@ -24678,7 +24678,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -24720,7 +24720,7 @@
         <v>47</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
@@ -24734,7 +24734,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -24762,7 +24762,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -24776,7 +24776,7 @@
         <v>47</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -24790,7 +24790,7 @@
         <v>47</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -24812,13 +24812,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -24826,7 +24826,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>47</v>
@@ -24840,7 +24840,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>47</v>
@@ -24854,7 +24854,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>47</v>
@@ -24882,13 +24882,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -24910,13 +24910,13 @@
         <v>183</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
@@ -24924,13 +24924,13 @@
         <v>183</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -24938,13 +24938,13 @@
         <v>183</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -24952,13 +24952,13 @@
         <v>183</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -24966,13 +24966,13 @@
         <v>183</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -24980,7 +24980,7 @@
         <v>183</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>47</v>
@@ -24994,13 +24994,13 @@
         <v>183</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
@@ -25014,7 +25014,7 @@
         <v>47</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -25022,7 +25022,7 @@
         <v>183</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>47</v>
@@ -25036,13 +25036,13 @@
         <v>183</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -25148,13 +25148,13 @@
         <v>208</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -25162,7 +25162,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>47</v>
@@ -25176,7 +25176,7 @@
         <v>208</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>47</v>
@@ -25190,7 +25190,7 @@
         <v>208</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>47</v>
@@ -25204,13 +25204,13 @@
         <v>208</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -25218,13 +25218,13 @@
         <v>224</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -25232,13 +25232,13 @@
         <v>224</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
@@ -25246,13 +25246,13 @@
         <v>224</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
@@ -25260,13 +25260,13 @@
         <v>201</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -25288,13 +25288,13 @@
         <v>201</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -25316,13 +25316,13 @@
         <v>235</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -25344,7 +25344,7 @@
         <v>235</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>47</v>
@@ -25358,13 +25358,13 @@
         <v>235</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -25372,13 +25372,13 @@
         <v>235</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -25386,13 +25386,13 @@
         <v>235</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -25434,7 +25434,7 @@
         <v>47</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>14</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104">
@@ -25442,13 +25442,13 @@
         <v>251</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>532</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -25476,7 +25476,7 @@
         <v>47</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>147</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -25490,7 +25490,7 @@
         <v>47</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>536</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
@@ -25498,13 +25498,13 @@
         <v>251</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>14</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109">
@@ -25546,7 +25546,7 @@
         <v>47</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>285</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112">
@@ -25574,7 +25574,7 @@
         <v>47</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>115</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114">
@@ -25602,7 +25602,7 @@
         <v>47</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -25616,7 +25616,7 @@
         <v>47</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117">
@@ -25630,7 +25630,7 @@
         <v>47</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
@@ -25644,7 +25644,7 @@
         <v>47</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -25652,13 +25652,13 @@
         <v>236</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -25666,13 +25666,13 @@
         <v>236</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -25680,13 +25680,13 @@
         <v>236</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -25694,7 +25694,7 @@
         <v>236</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>47</v>
@@ -25708,13 +25708,13 @@
         <v>236</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -25764,7 +25764,7 @@
         <v>285</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>47</v>
@@ -25854,7 +25854,7 @@
         <v>47</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134">
@@ -25868,7 +25868,7 @@
         <v>47</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>553</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -25876,7 +25876,7 @@
         <v>329</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>47</v>
@@ -25890,13 +25890,13 @@
         <v>329</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>53</v>
+        <v>555</v>
       </c>
     </row>
     <row r="137">
@@ -25910,7 +25910,7 @@
         <v>47</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>357</v>
+        <v>557</v>
       </c>
     </row>
     <row r="138">
@@ -25918,13 +25918,13 @@
         <v>329</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>558</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139">
@@ -25946,13 +25946,13 @@
         <v>74</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -25960,13 +25960,13 @@
         <v>74</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142">
@@ -25974,13 +25974,13 @@
         <v>74</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143">
@@ -25994,7 +25994,7 @@
         <v>47</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -26002,13 +26002,13 @@
         <v>74</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -26016,13 +26016,13 @@
         <v>74</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -26030,13 +26030,13 @@
         <v>74</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147">
@@ -26044,13 +26044,13 @@
         <v>74</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -26058,13 +26058,13 @@
         <v>74</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149">
@@ -26092,7 +26092,7 @@
         <v>47</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>14</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151">
@@ -26106,7 +26106,7 @@
         <v>47</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152">
@@ -26128,7 +26128,7 @@
         <v>465</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>47</v>
@@ -26148,7 +26148,7 @@
         <v>47</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>220</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -26198,13 +26198,13 @@
         <v>174</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -26212,13 +26212,13 @@
         <v>174</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
@@ -26226,13 +26226,13 @@
         <v>174</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161">
@@ -26282,13 +26282,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -26296,13 +26296,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166">
@@ -26310,13 +26310,13 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -26324,13 +26324,13 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -26338,7 +26338,7 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>47</v>
@@ -26352,7 +26352,7 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>47</v>
@@ -26366,13 +26366,13 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -26380,13 +26380,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172">
@@ -26394,7 +26394,7 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>47</v>
@@ -26414,7 +26414,7 @@
         <v>111</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>565</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -26422,13 +26422,13 @@
         <v>380</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>23</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175">
@@ -26436,13 +26436,13 @@
         <v>380</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>23</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176">
@@ -26450,7 +26450,7 @@
         <v>380</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>111</v>
@@ -26464,13 +26464,13 @@
         <v>380</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -26478,7 +26478,7 @@
         <v>380</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>111</v>
@@ -26492,13 +26492,13 @@
         <v>380</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
@@ -26506,13 +26506,13 @@
         <v>380</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>443</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -26520,13 +26520,13 @@
         <v>380</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>430</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182">
@@ -26540,7 +26540,7 @@
         <v>111</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>23</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183">
@@ -26568,7 +26568,7 @@
         <v>111</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
@@ -26596,7 +26596,7 @@
         <v>111</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>373</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
@@ -26610,7 +26610,7 @@
         <v>111</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>18</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188">
@@ -26624,7 +26624,7 @@
         <v>111</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>18</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9661" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9739" uniqueCount="639">
   <si>
     <t>Class Name</t>
   </si>
@@ -1395,12 +1395,12 @@
     <t>org.andante.activity.controller.ActivityController</t>
   </si>
   <si>
+    <t>getAllByIds(java.util.Set)</t>
+  </si>
+  <si>
     <t>ActivityController(org.andante.activity.logic.ActivityService, org.andante.activity.controller.mapper.ActivityDTOModelMapper, org.andante.mappers.OperationHttpStatusMapper)</t>
   </si>
   <si>
-    <t>getAllByIds(java.util.Set)</t>
-  </si>
-  <si>
     <t>org.andante.activity.controller.ProfileController</t>
   </si>
   <si>
@@ -1413,12 +1413,12 @@
     <t>ProfileController(org.andante.activity.controller.decoder.JWTTokenDecoder, org.andante.activity.logic.ProfileService, org.andante.activity.logic.UserProfileService, org.andante.activity.controller.mapper.UserProfileDTOModelMapper)</t>
   </si>
   <si>
+    <t>updateUser(java.lang.String, org.andante.activity.dto.UpdatedUserDetailsDTO)</t>
+  </si>
+  <si>
     <t>setProfileImage(java.lang.String, java.lang.String)</t>
   </si>
   <si>
-    <t>updateUser(java.lang.String, org.andante.activity.dto.UpdatedUserDetailsDTO)</t>
-  </si>
-  <si>
     <t>org.andante.activity.controller.NewsletterController</t>
   </si>
   <si>
@@ -1434,45 +1434,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>activityDTOModelMapper</t>
+  </si>
+  <si>
+    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityService</t>
+  </si>
+  <si>
+    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_MESSAGE</t>
+  </si>
+  <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
     <t>NULL_PAGE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
     <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
   </si>
   <si>
-    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityService</t>
-  </si>
-  <si>
-    <t>activityDTOModelMapper</t>
+    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
   </si>
   <si>
     <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
@@ -1482,136 +1482,142 @@
     <t>affectedUsers</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>relatedId</t>
+  </si>
+  <si>
+    <t>affectsAll</t>
+  </si>
+  <si>
+    <t>eventTimestamp</t>
+  </si>
+  <si>
     <t>acknowledgedUsers</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
-    <t>relatedId</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>affectsAll</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>observedUsers</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>communityImageUrl</t>
+  </si>
+  <si>
+    <t>observingUsers</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>observedUsers</t>
-  </si>
-  <si>
-    <t>communityImageUrl</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
-    <t>observingUsers</t>
-  </si>
-  <si>
     <t>recommendationService</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
     <t>java.lang.Integer</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>enableStartTLS</t>
   </si>
   <si>
     <t>smtpAuth</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>host</t>
+    <t>profileService</t>
+  </si>
+  <si>
+    <t>userProfileService</t>
+  </si>
+  <si>
+    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>jwtTokenDecoder</t>
+  </si>
+  <si>
+    <t>userProfileMapper</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>USERNAME_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
-    <t>profileService</t>
-  </si>
-  <si>
-    <t>userProfileService</t>
-  </si>
-  <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileMapper</t>
-  </si>
-  <si>
-    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
+    <t>affectsAll$set</t>
   </si>
   <si>
     <t>affectsAll$value</t>
   </si>
   <si>
-    <t>affectsAll$set</t>
+    <t>isConfirmed</t>
   </si>
   <si>
     <t>subscriptionDate</t>
   </si>
   <si>
-    <t>isConfirmed</t>
-  </si>
-  <si>
     <t>emailAddress</t>
   </si>
   <si>
+    <t>keycloakGetUserPath</t>
+  </si>
+  <si>
+    <t>adminUsername</t>
+  </si>
+  <si>
+    <t>keycloakUrl</t>
+  </si>
+  <si>
     <t>keycloakUpdateUserPath</t>
   </si>
   <si>
-    <t>keycloakGetUserPath</t>
-  </si>
-  <si>
-    <t>keycloakUrl</t>
+    <t>adminPassword</t>
   </si>
   <si>
     <t>keycloakAdminTokenPath</t>
   </si>
   <si>
-    <t>adminUsername</t>
-  </si>
-  <si>
-    <t>adminPassword</t>
+    <t>observers</t>
   </si>
   <si>
     <t>observed</t>
   </si>
   <si>
-    <t>observers</t>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
   <si>
     <t>logo</t>
@@ -1620,30 +1626,24 @@
     <t>org.springframework.core.io.Resource</t>
   </si>
   <si>
-    <t>NEWSLETTER_TEMPLATE</t>
+    <t>mailSender</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
   </si>
   <si>
     <t>NEWSLETTER_TITLE</t>
   </si>
   <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>mailSender</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
+    <t>userProfileRepository</t>
   </si>
   <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
@@ -1653,18 +1653,18 @@
     <t>issuerUri</t>
   </si>
   <si>
+    <t>newsletterMapper</t>
+  </si>
+  <si>
     <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>newsletterRepository</t>
   </si>
   <si>
-    <t>newsletterMapper</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>privateToken</t>
   </si>
   <si>
@@ -1674,55 +1674,88 @@
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
+    <t>activityModelEntityMapper</t>
+  </si>
+  <si>
+    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityRepository</t>
+  </si>
+  <si>
     <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>activityModelEntityMapper</t>
-  </si>
-  <si>
     <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
-    <t>activityRepository</t>
+    <t>newsletterService</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>emailSender</t>
   </si>
   <si>
-    <t>newsletterService</t>
-  </si>
-  <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>val$productOutputDTO</t>
+  </si>
+  <si>
+    <t>org.andante.product.dto.ProductOutputDTO</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
+  </si>
+  <si>
     <t>entrySet</t>
   </si>
   <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>this$0</t>
+    <t>modCount</t>
   </si>
   <si>
     <t>threshold</t>
@@ -1731,40 +1764,7 @@
     <t>keySet</t>
   </si>
   <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>val$productOutputDTO</t>
-  </si>
-  <si>
-    <t>org.andante.product.dto.ProductOutputDTO</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>values</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -19191,7 +19191,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19356,7 +19356,7 @@
         <v>456</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>607</v>
@@ -19400,7 +19400,7 @@
         <v>456</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>621</v>
@@ -19411,10 +19411,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21">
@@ -19422,7 +19422,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>593</v>
@@ -19430,13 +19430,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23">
@@ -19444,7 +19444,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>618</v>
@@ -19455,10 +19455,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25">
@@ -19466,18 +19466,18 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>593</v>
@@ -19485,10 +19485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>593</v>
@@ -19496,35 +19496,35 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>587</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31">
@@ -19532,51 +19532,51 @@
         <v>59</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>593</v>
@@ -19587,7 +19587,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>593</v>
@@ -19598,10 +19598,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>628</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38">
@@ -19609,10 +19609,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39">
@@ -19620,7 +19620,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>593</v>
@@ -19631,7 +19631,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>593</v>
@@ -19642,7 +19642,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>593</v>
@@ -19653,7 +19653,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>593</v>
@@ -19664,7 +19664,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>593</v>
@@ -19675,7 +19675,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>593</v>
@@ -19686,7 +19686,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>593</v>
@@ -19697,7 +19697,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>593</v>
@@ -19708,7 +19708,7 @@
         <v>57</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>593</v>
@@ -19719,7 +19719,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>593</v>
@@ -19730,7 +19730,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>593</v>
@@ -19741,7 +19741,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>593</v>
@@ -19752,7 +19752,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>593</v>
@@ -19763,7 +19763,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>593</v>
@@ -19771,43 +19771,43 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>593</v>
@@ -19815,43 +19815,43 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>593</v>
@@ -19859,57 +19859,57 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66">
@@ -19917,10 +19917,10 @@
         <v>105</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67">
@@ -19928,7 +19928,7 @@
         <v>105</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>618</v>
@@ -19939,10 +19939,10 @@
         <v>105</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69">
@@ -19950,40 +19950,40 @@
         <v>105</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>618</v>
@@ -19991,120 +19991,120 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>586</v>
+        <v>631</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>593</v>
@@ -20112,10 +20112,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>593</v>
@@ -20123,21 +20123,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>618</v>
@@ -20145,10 +20145,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>631</v>
@@ -20156,7 +20156,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>50</v>
@@ -20167,32 +20167,32 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>618</v>
@@ -20200,10 +20200,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>631</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>50</v>
@@ -20222,112 +20222,112 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>50</v>
+        <v>463</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>586</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>631</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="104">
@@ -20346,10 +20346,10 @@
         <v>459</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106">
@@ -20357,10 +20357,10 @@
         <v>459</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107">
@@ -20368,10 +20368,10 @@
         <v>459</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="108">
@@ -20379,18 +20379,18 @@
         <v>459</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>618</v>
@@ -20398,43 +20398,43 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>593</v>
@@ -20442,54 +20442,54 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>462</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>593</v>
@@ -20497,10 +20497,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>593</v>
@@ -20511,10 +20511,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121">
@@ -20522,7 +20522,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>593</v>
@@ -20533,7 +20533,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>593</v>
@@ -20544,7 +20544,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>593</v>
@@ -20555,7 +20555,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>593</v>
@@ -20566,7 +20566,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>593</v>
@@ -20577,10 +20577,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127">
@@ -20588,7 +20588,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>593</v>
@@ -20599,10 +20599,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>593</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129">
@@ -20610,7 +20610,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>593</v>
@@ -20618,10 +20618,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>593</v>
@@ -20629,10 +20629,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>593</v>
@@ -20640,43 +20640,43 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>593</v>
@@ -20684,90 +20684,90 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>634</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144">
@@ -20775,10 +20775,10 @@
         <v>183</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>587</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145">
@@ -20786,7 +20786,7 @@
         <v>183</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>618</v>
@@ -20797,10 +20797,10 @@
         <v>183</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147">
@@ -20808,95 +20808,95 @@
         <v>183</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>593</v>
@@ -20907,7 +20907,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>593</v>
@@ -20915,43 +20915,43 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>593</v>
@@ -20959,10 +20959,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>593</v>
@@ -20970,21 +20970,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>593</v>
@@ -20992,21 +20992,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>618</v>
@@ -21014,32 +21014,32 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>593</v>
@@ -21047,13 +21047,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>593</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170">
@@ -21061,10 +21061,10 @@
         <v>208</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171">
@@ -21072,10 +21072,10 @@
         <v>208</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172">
@@ -21083,10 +21083,10 @@
         <v>208</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173">
@@ -21094,172 +21094,172 @@
         <v>208</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>625</v>
+        <v>587</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>618</v>
@@ -21267,65 +21267,65 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>618</v>
@@ -21333,32 +21333,32 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>618</v>
@@ -21366,10 +21366,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>618</v>
@@ -21377,21 +21377,21 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>593</v>
@@ -21399,10 +21399,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>593</v>
@@ -21410,21 +21410,21 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>618</v>
@@ -21432,43 +21432,43 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>618</v>
@@ -21476,10 +21476,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>618</v>
@@ -21487,21 +21487,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>593</v>
@@ -21509,189 +21509,189 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>593</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="228">
@@ -21699,10 +21699,10 @@
         <v>259</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229">
@@ -21710,10 +21710,10 @@
         <v>259</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="230">
@@ -21721,128 +21721,128 @@
         <v>259</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>636</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>605</v>
+        <v>636</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>593</v>
@@ -21850,43 +21850,43 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>593</v>
@@ -21894,13 +21894,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="247">
@@ -21908,7 +21908,7 @@
         <v>236</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>593</v>
@@ -21919,10 +21919,10 @@
         <v>236</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="249">
@@ -21930,10 +21930,10 @@
         <v>236</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="250">
@@ -21941,7 +21941,7 @@
         <v>236</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>593</v>
@@ -21952,7 +21952,7 @@
         <v>236</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>593</v>
@@ -21960,43 +21960,43 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>593</v>
@@ -22004,10 +22004,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>593</v>
@@ -22015,21 +22015,21 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>593</v>
@@ -22037,21 +22037,21 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>593</v>
@@ -22059,98 +22059,98 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>621</v>
@@ -22158,35 +22158,35 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="273">
@@ -22194,10 +22194,10 @@
         <v>294</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274">
@@ -22205,7 +22205,7 @@
         <v>294</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>621</v>
@@ -22216,7 +22216,7 @@
         <v>294</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>621</v>
@@ -22227,7 +22227,7 @@
         <v>294</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>621</v>
@@ -22238,7 +22238,7 @@
         <v>294</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>621</v>
@@ -22249,7 +22249,7 @@
         <v>294</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>621</v>
@@ -22260,10 +22260,10 @@
         <v>294</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="280">
@@ -22271,10 +22271,10 @@
         <v>294</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="281">
@@ -22282,10 +22282,10 @@
         <v>294</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="282">
@@ -22293,10 +22293,10 @@
         <v>294</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283">
@@ -22304,10 +22304,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284">
@@ -22315,10 +22315,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="285">
@@ -22326,10 +22326,10 @@
         <v>294</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="286">
@@ -22337,10 +22337,10 @@
         <v>294</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287">
@@ -22348,10 +22348,10 @@
         <v>294</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="288">
@@ -22359,10 +22359,10 @@
         <v>294</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289">
@@ -22370,7 +22370,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>593</v>
@@ -22381,7 +22381,7 @@
         <v>294</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>593</v>
@@ -22392,7 +22392,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>593</v>
@@ -22403,7 +22403,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>593</v>
@@ -22414,7 +22414,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>593</v>
@@ -22425,7 +22425,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>593</v>
@@ -22433,112 +22433,112 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>593</v>
+        <v>636</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="305">
@@ -22546,10 +22546,10 @@
         <v>329</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="306">
@@ -22557,10 +22557,10 @@
         <v>329</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="307">
@@ -22568,10 +22568,10 @@
         <v>329</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="308">
@@ -22579,120 +22579,120 @@
         <v>329</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>607</v>
+        <v>587</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>331</v>
+        <v>185</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="319">
@@ -22700,10 +22700,10 @@
         <v>74</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="320">
@@ -22711,18 +22711,18 @@
         <v>74</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>618</v>
@@ -22730,43 +22730,43 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>618</v>
@@ -22774,211 +22774,211 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>186</v>
+        <v>361</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>188</v>
+        <v>360</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>13</v>
+        <v>359</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>352</v>
+        <v>221</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>358</v>
+        <v>194</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>359</v>
+        <v>195</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>466</v>
+        <v>166</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="345">
@@ -22986,10 +22986,10 @@
         <v>174</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="346">
@@ -22997,7 +22997,7 @@
         <v>174</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>593</v>
@@ -23005,43 +23005,43 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>194</v>
+        <v>371</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>593</v>
@@ -23049,10 +23049,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>197</v>
+        <v>370</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>593</v>
@@ -23060,112 +23060,112 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>637</v>
+        <v>586</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>631</v>
+        <v>586</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="362">
@@ -23173,7 +23173,7 @@
         <v>372</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>586</v>
@@ -23181,153 +23181,153 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>586</v>
+        <v>634</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>586</v>
+        <v>636</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>376</v>
+        <v>72</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>375</v>
+        <v>68</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>374</v>
+        <v>66</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>593</v>
@@ -23338,7 +23338,7 @@
         <v>43</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>593</v>
@@ -23349,10 +23349,10 @@
         <v>43</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>628</v>
+        <v>593</v>
       </c>
     </row>
     <row r="379">
@@ -23360,7 +23360,7 @@
         <v>43</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>593</v>
@@ -23371,7 +23371,7 @@
         <v>43</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>593</v>
@@ -23382,7 +23382,7 @@
         <v>43</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>593</v>
@@ -23393,7 +23393,7 @@
         <v>43</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>593</v>
@@ -23404,7 +23404,7 @@
         <v>43</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>593</v>
@@ -23415,7 +23415,7 @@
         <v>43</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>593</v>
@@ -23426,7 +23426,7 @@
         <v>43</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>593</v>
@@ -23437,7 +23437,7 @@
         <v>43</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>593</v>
@@ -23448,7 +23448,7 @@
         <v>43</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>593</v>
@@ -23459,10 +23459,10 @@
         <v>43</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>593</v>
+        <v>638</v>
       </c>
     </row>
     <row r="389">
@@ -23470,7 +23470,7 @@
         <v>43</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>593</v>
@@ -23481,10 +23481,10 @@
         <v>43</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="391">
@@ -23492,7 +23492,7 @@
         <v>43</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>593</v>
@@ -23500,122 +23500,12 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B393" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C393" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B394" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C394" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B395" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C395" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B396" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C396" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B397" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C397" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B398" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C398" t="s" s="0">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B399" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="C399" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B400" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C400" t="s" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B401" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C401" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="B402" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="C402" t="s" s="0">
         <v>586</v>
       </c>
     </row>
@@ -23626,7 +23516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23651,13 +23541,13 @@
         <v>456</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -23665,13 +23555,13 @@
         <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -23685,7 +23575,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -23693,7 +23583,7 @@
         <v>456</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>458</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -23707,13 +23597,13 @@
         <v>456</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -23721,13 +23611,13 @@
         <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>338</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -23749,7 +23639,7 @@
         <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
@@ -23763,35 +23653,35 @@
         <v>456</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>351</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>460</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>461</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -23802,10 +23692,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -23816,38 +23706,38 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>96</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -23858,10 +23748,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>463</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -23872,24 +23762,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -23903,13 +23793,13 @@
         <v>459</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -23917,7 +23807,7 @@
         <v>459</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>33</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
@@ -23928,10 +23818,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>221</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -23942,43 +23832,421 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>466</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>10</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>222</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>351</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B40" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>351</v>
       </c>
     </row>
@@ -24020,7 +24288,7 @@
         <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -24034,7 +24302,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>472</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -24042,7 +24310,7 @@
         <v>456</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>47</v>
@@ -24056,13 +24324,13 @@
         <v>456</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
@@ -24070,7 +24338,7 @@
         <v>456</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>47</v>
@@ -24084,13 +24352,13 @@
         <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>372</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -24098,13 +24366,13 @@
         <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -24112,13 +24380,13 @@
         <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10">
@@ -24196,7 +24464,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>47</v>
@@ -24224,7 +24492,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>47</v>
@@ -24258,7 +24526,7 @@
         <v>47</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -24286,7 +24554,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -24300,7 +24568,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -24328,7 +24596,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -24342,7 +24610,7 @@
         <v>47</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -24356,7 +24624,7 @@
         <v>47</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -24364,7 +24632,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>47</v>
@@ -24426,7 +24694,7 @@
         <v>47</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -24440,7 +24708,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -24468,7 +24736,7 @@
         <v>47</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -24496,7 +24764,7 @@
         <v>47</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -24518,7 +24786,7 @@
         <v>120</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>47</v>
@@ -24532,7 +24800,7 @@
         <v>130</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>47</v>
@@ -24546,13 +24814,13 @@
         <v>135</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>372</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -24560,13 +24828,13 @@
         <v>135</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -24574,7 +24842,7 @@
         <v>140</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>47</v>
@@ -24594,7 +24862,7 @@
         <v>47</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>503</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -24602,13 +24870,13 @@
         <v>145</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>14</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45">
@@ -24616,7 +24884,7 @@
         <v>145</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>47</v>
@@ -24630,7 +24898,7 @@
         <v>145</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>47</v>
@@ -24644,7 +24912,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>47</v>
@@ -24678,7 +24946,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
@@ -24692,7 +24960,7 @@
         <v>47</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -24706,7 +24974,7 @@
         <v>47</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -24720,7 +24988,7 @@
         <v>47</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -24734,7 +25002,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -24748,7 +25016,7 @@
         <v>47</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -24762,7 +25030,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -24776,7 +25044,7 @@
         <v>47</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -24798,7 +25066,7 @@
         <v>152</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>47</v>
@@ -24818,7 +25086,7 @@
         <v>47</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -24826,13 +25094,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -24840,7 +25108,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>47</v>
@@ -24860,7 +25128,7 @@
         <v>47</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -24888,7 +25156,7 @@
         <v>47</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -24910,13 +25178,13 @@
         <v>183</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
@@ -24924,13 +25192,13 @@
         <v>183</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
@@ -24938,13 +25206,13 @@
         <v>183</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -24952,13 +25220,13 @@
         <v>183</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -24966,13 +25234,13 @@
         <v>183</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -24980,13 +25248,13 @@
         <v>183</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -24994,13 +25262,13 @@
         <v>183</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -25008,7 +25276,7 @@
         <v>183</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>47</v>
@@ -25022,13 +25290,13 @@
         <v>183</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -25042,7 +25310,7 @@
         <v>47</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
@@ -25056,7 +25324,7 @@
         <v>47</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
@@ -25070,7 +25338,7 @@
         <v>47</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
@@ -25106,7 +25374,7 @@
         <v>203</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>47</v>
@@ -25120,13 +25388,13 @@
         <v>208</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -25134,7 +25402,7 @@
         <v>208</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>47</v>
@@ -25148,13 +25416,13 @@
         <v>208</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -25232,7 +25500,7 @@
         <v>224</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>47</v>
@@ -25246,7 +25514,7 @@
         <v>224</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>47</v>
@@ -25260,7 +25528,7 @@
         <v>201</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>47</v>
@@ -25274,7 +25542,7 @@
         <v>201</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>47</v>
@@ -25302,7 +25570,7 @@
         <v>230</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>47</v>
@@ -25316,13 +25584,13 @@
         <v>235</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -25330,7 +25598,7 @@
         <v>235</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>47</v>
@@ -25344,7 +25612,7 @@
         <v>235</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>47</v>
@@ -25358,13 +25626,13 @@
         <v>235</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -25372,13 +25640,13 @@
         <v>235</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -25386,13 +25654,13 @@
         <v>235</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -25400,7 +25668,7 @@
         <v>241</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>47</v>
@@ -25414,7 +25682,7 @@
         <v>246</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>47</v>
@@ -25434,7 +25702,7 @@
         <v>47</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>531</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -25442,7 +25710,7 @@
         <v>251</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>47</v>
@@ -25456,13 +25724,13 @@
         <v>251</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>14</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106">
@@ -25476,7 +25744,7 @@
         <v>47</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
@@ -25490,7 +25758,7 @@
         <v>47</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>147</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108">
@@ -25498,13 +25766,13 @@
         <v>251</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>537</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -25512,7 +25780,7 @@
         <v>254</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>47</v>
@@ -25532,7 +25800,7 @@
         <v>47</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
@@ -25546,7 +25814,7 @@
         <v>47</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -25602,7 +25870,7 @@
         <v>47</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116">
@@ -25616,7 +25884,7 @@
         <v>47</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -25630,7 +25898,7 @@
         <v>47</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -25644,7 +25912,7 @@
         <v>47</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
@@ -25652,7 +25920,7 @@
         <v>236</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>47</v>
@@ -25666,7 +25934,7 @@
         <v>236</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>47</v>
@@ -25694,13 +25962,13 @@
         <v>236</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -25708,13 +25976,13 @@
         <v>236</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -25722,7 +25990,7 @@
         <v>236</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>47</v>
@@ -25736,7 +26004,7 @@
         <v>276</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>47</v>
@@ -25764,7 +26032,7 @@
         <v>285</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>47</v>
@@ -25840,7 +26108,7 @@
         <v>47</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>14</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133">
@@ -25848,13 +26116,13 @@
         <v>329</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>53</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134">
@@ -25862,13 +26130,13 @@
         <v>329</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135">
@@ -25876,7 +26144,7 @@
         <v>329</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>47</v>
@@ -25890,13 +26158,13 @@
         <v>329</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>555</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137">
@@ -25904,13 +26172,13 @@
         <v>329</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>557</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -25924,7 +26192,7 @@
         <v>47</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>357</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -25946,7 +26214,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>47</v>
@@ -25960,13 +26228,13 @@
         <v>74</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -25974,13 +26242,13 @@
         <v>74</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -25988,13 +26256,13 @@
         <v>74</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144">
@@ -26008,7 +26276,7 @@
         <v>47</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -26016,13 +26284,13 @@
         <v>74</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146">
@@ -26030,13 +26298,13 @@
         <v>74</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147">
@@ -26044,13 +26312,13 @@
         <v>74</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -26058,13 +26326,13 @@
         <v>74</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149">
@@ -26092,7 +26360,7 @@
         <v>47</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151">
@@ -26100,13 +26368,13 @@
         <v>465</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152">
@@ -26114,7 +26382,7 @@
         <v>465</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>47</v>
@@ -26128,13 +26396,13 @@
         <v>465</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -26148,7 +26416,7 @@
         <v>47</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>14</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155">
@@ -26218,7 +26486,7 @@
         <v>47</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160">
@@ -26232,7 +26500,7 @@
         <v>47</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161">
@@ -26240,7 +26508,7 @@
         <v>367</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>47</v>
@@ -26282,7 +26550,7 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>47</v>
@@ -26296,7 +26564,7 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>47</v>
@@ -26316,7 +26584,7 @@
         <v>47</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167">
@@ -26324,13 +26592,13 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168">
@@ -26338,13 +26606,13 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169">
@@ -26352,13 +26620,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -26366,7 +26634,7 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>47</v>
@@ -26380,13 +26648,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -26394,13 +26662,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -26414,7 +26682,7 @@
         <v>111</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>18</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174">
@@ -26428,7 +26696,7 @@
         <v>111</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175">
@@ -26442,7 +26710,7 @@
         <v>111</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>373</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176">
@@ -26470,7 +26738,7 @@
         <v>111</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>18</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178">
@@ -26478,13 +26746,13 @@
         <v>380</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>23</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179">
@@ -26492,13 +26760,13 @@
         <v>380</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>23</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180">
@@ -26506,7 +26774,7 @@
         <v>380</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>111</v>
@@ -26520,13 +26788,13 @@
         <v>380</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>573</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
@@ -26540,7 +26808,7 @@
         <v>111</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
@@ -26568,7 +26836,7 @@
         <v>111</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -26610,7 +26878,7 @@
         <v>111</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>443</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -26624,7 +26892,7 @@
         <v>111</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>430</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -35035,7 +35303,7 @@
         <v>459</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>101</v>
@@ -35052,7 +35320,7 @@
         <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>372</v>
@@ -35171,7 +35439,7 @@
         <v>459</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>101</v>
@@ -35409,7 +35677,7 @@
         <v>459</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>95</v>
@@ -35545,7 +35813,7 @@
         <v>459</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>4</v>

--- a/data/backend/activity-service_structure.xlsx
+++ b/data/backend/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9739" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9769" uniqueCount="640">
   <si>
     <t>Class Name</t>
   </si>
@@ -1849,6 +1849,9 @@
   </si>
   <si>
     <t>79</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>38</t>
@@ -18621,7 +18624,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5">
@@ -18653,7 +18656,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
@@ -18677,7 +18680,7 @@
         <v>89</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12">
@@ -18701,7 +18704,7 @@
         <v>99</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15">
@@ -18709,7 +18712,7 @@
         <v>100</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16">
@@ -18725,7 +18728,7 @@
         <v>105</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18">
@@ -18741,7 +18744,7 @@
         <v>119</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
@@ -18773,7 +18776,7 @@
         <v>135</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24">
@@ -18789,7 +18792,7 @@
         <v>145</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26">
@@ -18805,7 +18808,7 @@
         <v>459</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28">
@@ -18821,7 +18824,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30">
@@ -18829,7 +18832,7 @@
         <v>171</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31">
@@ -18853,7 +18856,7 @@
         <v>183</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34">
@@ -18861,7 +18864,7 @@
         <v>177</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35">
@@ -18869,7 +18872,7 @@
         <v>202</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36">
@@ -18885,7 +18888,7 @@
         <v>208</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38">
@@ -18901,7 +18904,7 @@
         <v>224</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40">
@@ -18909,7 +18912,7 @@
         <v>201</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41">
@@ -18925,7 +18928,7 @@
         <v>235</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43">
@@ -18965,7 +18968,7 @@
         <v>259</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48">
@@ -18973,7 +18976,7 @@
         <v>263</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49">
@@ -18981,7 +18984,7 @@
         <v>267</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50">
@@ -18989,7 +18992,7 @@
         <v>236</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51">
@@ -19013,7 +19016,7 @@
         <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54">
@@ -19021,7 +19024,7 @@
         <v>285</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55">
@@ -19029,7 +19032,7 @@
         <v>289</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56">
@@ -19037,7 +19040,7 @@
         <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57">
@@ -19045,7 +19048,7 @@
         <v>294</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58">
@@ -19053,7 +19056,7 @@
         <v>329</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="59">
@@ -19061,7 +19064,7 @@
         <v>347</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60">
@@ -19069,7 +19072,7 @@
         <v>74</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61">
@@ -19077,7 +19080,7 @@
         <v>349</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62">
@@ -19085,7 +19088,7 @@
         <v>357</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63">
@@ -19093,7 +19096,7 @@
         <v>362</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64">
@@ -19101,7 +19104,7 @@
         <v>465</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65">
@@ -19109,7 +19112,7 @@
         <v>363</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66">
@@ -19117,7 +19120,7 @@
         <v>364</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67">
@@ -19125,7 +19128,7 @@
         <v>365</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68">
@@ -19133,7 +19136,7 @@
         <v>174</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69">
@@ -19149,7 +19152,7 @@
         <v>372</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71">
@@ -19157,7 +19160,7 @@
         <v>373</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72">
@@ -19165,7 +19168,7 @@
         <v>377</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73">
@@ -19173,7 +19176,7 @@
         <v>43</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74">
@@ -19191,7 +19194,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19315,7 +19318,7 @@
         <v>338</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
@@ -19392,7 +19395,7 @@
         <v>331</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19">
@@ -19403,7 +19406,7 @@
         <v>458</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20">
@@ -19411,10 +19414,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21">
@@ -19422,7 +19425,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>593</v>
@@ -19430,13 +19433,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23">
@@ -19444,10 +19447,10 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24">
@@ -19455,10 +19458,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25">
@@ -19466,18 +19469,18 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>593</v>
@@ -19485,10 +19488,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>593</v>
@@ -19496,35 +19499,35 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>631</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31">
@@ -19532,51 +19535,51 @@
         <v>59</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>593</v>
@@ -19587,7 +19590,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>593</v>
@@ -19598,10 +19601,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38">
@@ -19609,10 +19612,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39">
@@ -19620,7 +19623,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>593</v>
@@ -19631,7 +19634,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>593</v>
@@ -19642,7 +19645,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>593</v>
@@ -19653,7 +19656,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>593</v>
@@ -19664,7 +19667,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>593</v>
@@ -19675,7 +19678,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>593</v>
@@ -19686,7 +19689,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>593</v>
@@ -19697,7 +19700,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>593</v>
@@ -19708,7 +19711,7 @@
         <v>57</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>593</v>
@@ -19719,7 +19722,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>593</v>
@@ -19730,7 +19733,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>593</v>
@@ -19741,7 +19744,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>593</v>
@@ -19752,7 +19755,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>593</v>
@@ -19763,7 +19766,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>593</v>
@@ -19771,43 +19774,43 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>593</v>
@@ -19815,43 +19818,43 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>593</v>
@@ -19859,57 +19862,57 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66">
@@ -19917,10 +19920,10 @@
         <v>105</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67">
@@ -19928,10 +19931,10 @@
         <v>105</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68">
@@ -19939,10 +19942,10 @@
         <v>105</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69">
@@ -19950,161 +19953,161 @@
         <v>105</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>593</v>
@@ -20112,10 +20115,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>593</v>
@@ -20123,40 +20126,40 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>50</v>
@@ -20167,51 +20170,51 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>50</v>
@@ -20222,112 +20225,112 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>463</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>461</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="104">
@@ -20335,10 +20338,10 @@
         <v>459</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105">
@@ -20346,10 +20349,10 @@
         <v>459</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="106">
@@ -20357,10 +20360,10 @@
         <v>459</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
@@ -20368,10 +20371,10 @@
         <v>459</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108">
@@ -20379,62 +20382,62 @@
         <v>459</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>462</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>593</v>
@@ -20442,54 +20445,54 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>165</v>
+        <v>462</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>593</v>
@@ -20497,10 +20500,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>593</v>
@@ -20511,10 +20514,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121">
@@ -20522,7 +20525,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>593</v>
@@ -20533,7 +20536,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>593</v>
@@ -20544,7 +20547,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>593</v>
@@ -20555,7 +20558,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>593</v>
@@ -20566,7 +20569,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>593</v>
@@ -20577,10 +20580,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127">
@@ -20588,7 +20591,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>593</v>
@@ -20599,10 +20602,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129">
@@ -20610,7 +20613,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>593</v>
@@ -20618,10 +20621,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>593</v>
@@ -20629,10 +20632,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>593</v>
@@ -20640,43 +20643,43 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>593</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>593</v>
@@ -20684,90 +20687,90 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>587</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144">
@@ -20775,10 +20778,10 @@
         <v>183</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>621</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145">
@@ -20786,10 +20789,10 @@
         <v>183</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="146">
@@ -20797,10 +20800,10 @@
         <v>183</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="147">
@@ -20808,95 +20811,95 @@
         <v>183</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>593</v>
@@ -20907,7 +20910,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>593</v>
@@ -20915,43 +20918,43 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>593</v>
@@ -20959,10 +20962,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>593</v>
@@ -20970,21 +20973,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>593</v>
@@ -20992,54 +20995,54 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>593</v>
@@ -21047,13 +21050,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>625</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170">
@@ -21061,10 +21064,10 @@
         <v>208</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171">
@@ -21072,10 +21075,10 @@
         <v>208</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172">
@@ -21083,10 +21086,10 @@
         <v>208</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173">
@@ -21094,304 +21097,304 @@
         <v>208</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>587</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>593</v>
@@ -21399,10 +21402,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>593</v>
@@ -21410,98 +21413,98 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>593</v>
@@ -21509,120 +21512,120 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>636</v>
@@ -21630,68 +21633,68 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="228">
@@ -21699,10 +21702,10 @@
         <v>259</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="229">
@@ -21710,10 +21713,10 @@
         <v>259</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230">
@@ -21721,128 +21724,128 @@
         <v>259</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>586</v>
+        <v>637</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>587</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>593</v>
@@ -21850,43 +21853,43 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>593</v>
@@ -21894,13 +21897,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247">
@@ -21908,7 +21911,7 @@
         <v>236</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>593</v>
@@ -21919,10 +21922,10 @@
         <v>236</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="249">
@@ -21930,10 +21933,10 @@
         <v>236</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="250">
@@ -21941,7 +21944,7 @@
         <v>236</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>593</v>
@@ -21952,7 +21955,7 @@
         <v>236</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>593</v>
@@ -21960,43 +21963,43 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>593</v>
@@ -22004,10 +22007,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>593</v>
@@ -22015,21 +22018,21 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>593</v>
@@ -22037,21 +22040,21 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>593</v>
@@ -22059,134 +22062,134 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>317</v>
+        <v>50</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>621</v>
+        <v>586</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="273">
@@ -22194,10 +22197,10 @@
         <v>294</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274">
@@ -22205,10 +22208,10 @@
         <v>294</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275">
@@ -22216,10 +22219,10 @@
         <v>294</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="276">
@@ -22227,10 +22230,10 @@
         <v>294</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="277">
@@ -22238,10 +22241,10 @@
         <v>294</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278">
@@ -22249,10 +22252,10 @@
         <v>294</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="279">
@@ -22260,10 +22263,10 @@
         <v>294</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280">
@@ -22271,10 +22274,10 @@
         <v>294</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="281">
@@ -22282,10 +22285,10 @@
         <v>294</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282">
@@ -22293,10 +22296,10 @@
         <v>294</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283">
@@ -22304,10 +22307,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284">
@@ -22315,10 +22318,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285">
@@ -22326,10 +22329,10 @@
         <v>294</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286">
@@ -22337,10 +22340,10 @@
         <v>294</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="287">
@@ -22348,10 +22351,10 @@
         <v>294</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="288">
@@ -22359,10 +22362,10 @@
         <v>294</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289">
@@ -22370,7 +22373,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>593</v>
@@ -22381,7 +22384,7 @@
         <v>294</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>593</v>
@@ -22392,7 +22395,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>593</v>
@@ -22403,7 +22406,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>593</v>
@@ -22414,7 +22417,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>593</v>
@@ -22425,7 +22428,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>593</v>
@@ -22433,112 +22436,112 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="305">
@@ -22546,10 +22549,10 @@
         <v>329</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306">
@@ -22557,10 +22560,10 @@
         <v>329</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307">
@@ -22568,10 +22571,10 @@
         <v>329</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="308">
@@ -22579,120 +22582,120 @@
         <v>329</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>587</v>
+        <v>607</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="319">
@@ -22700,10 +22703,10 @@
         <v>74</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="320">
@@ -22711,274 +22714,274 @@
         <v>74</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>354</v>
+        <v>184</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>356</v>
+        <v>192</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>353</v>
+        <v>190</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>360</v>
+        <v>188</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>466</v>
+        <v>356</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>195</v>
+        <v>359</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>166</v>
+        <v>466</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="345">
@@ -22986,10 +22989,10 @@
         <v>174</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>22</v>
+        <v>366</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="346">
@@ -22997,7 +23000,7 @@
         <v>174</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>593</v>
@@ -23005,43 +23008,43 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>368</v>
+        <v>199</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>593</v>
@@ -23049,10 +23052,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>370</v>
+        <v>197</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>593</v>
@@ -23060,112 +23063,112 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>586</v>
+        <v>638</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>342</v>
+        <v>166</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>586</v>
+        <v>629</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>586</v>
+        <v>632</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="362">
@@ -23173,7 +23176,7 @@
         <v>372</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>586</v>
@@ -23181,153 +23184,153 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>636</v>
+        <v>586</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>593</v>
@@ -23338,7 +23341,7 @@
         <v>43</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>593</v>
@@ -23349,10 +23352,10 @@
         <v>43</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379">
@@ -23360,7 +23363,7 @@
         <v>43</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>593</v>
@@ -23371,7 +23374,7 @@
         <v>43</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>593</v>
@@ -23382,7 +23385,7 @@
         <v>43</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>593</v>
@@ -23393,7 +23396,7 @@
         <v>43</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>593</v>
@@ -23404,7 +23407,7 @@
         <v>43</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>593</v>
@@ -23415,7 +23418,7 @@
         <v>43</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>593</v>
@@ -23426,7 +23429,7 @@
         <v>43</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>593</v>
@@ -23437,7 +23440,7 @@
         <v>43</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>593</v>
@@ -23448,7 +23451,7 @@
         <v>43</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>593</v>
@@ -23459,10 +23462,10 @@
         <v>43</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>638</v>
+        <v>593</v>
       </c>
     </row>
     <row r="389">
@@ -23470,7 +23473,7 @@
         <v>43</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>593</v>
@@ -23481,10 +23484,10 @@
         <v>43</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>616</v>
+        <v>593</v>
       </c>
     </row>
     <row r="391">
@@ -23492,7 +23495,7 @@
         <v>43</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>593</v>
@@ -23500,13 +23503,123 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="B392" t="s" s="0">
+      <c r="B402" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="C392" t="s" s="0">
-        <v>586</v>
+      <c r="C402" t="s" s="0">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
